--- a/reports/conceptual_design_report/gantt_chart.xlsx
+++ b/reports/conceptual_design_report/gantt_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\reports\conceptual_design_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E975278B-6DED-4C42-B1B7-4E4985F29738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EBF858-C5B3-4F87-BA39-6223E270EF9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,20 +18,24 @@
     <sheet name="PUT_Detay (2)" sheetId="4" r:id="rId3"/>
     <sheet name="PUT_Detay (3)" sheetId="5" r:id="rId4"/>
     <sheet name="PUT_Detay (4)" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1 (2)" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="PUT_Detay (5)" sheetId="7" r:id="rId6"/>
+    <sheet name="PUT_Detay (6)" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1 (2)" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PUT_Detay!$B$2:$AA$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'PUT_Detay (2)'!$B$2:$AA$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'PUT_Detay (3)'!$B$2:$AA$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'PUT_Detay (4)'!$B$6:$AF$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'PUT_Detay (5)'!$B$6:$AF$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'PUT_Detay (6)'!$B$6:$AF$16</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="348">
   <si>
     <t>İP No</t>
   </si>
@@ -1051,18 +1055,53 @@
   </si>
   <si>
     <t>Driving System Testing</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t>November 2018</t>
+  </si>
+  <si>
+    <t>Assessment of System 
+Requirement Phase</t>
+  </si>
+  <si>
+    <t>Conceptual Design and 
+Preliminary Design Phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept Development 
+Phase </t>
+  </si>
+  <si>
+    <t>Tracking the Lane</t>
+  </si>
+  <si>
+    <t>Detecting the Lane</t>
+  </si>
+  <si>
+    <t>Detecting Opponent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1236,6 +1275,33 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFE07187"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1287,7 +1353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1782,39 +1848,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1823,53 +1978,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1878,195 +2033,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2074,135 +2223,111 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2213,36 +2338,157 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3503,25 +3749,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="171" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="162"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="172"/>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="163"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
@@ -10493,10 +10739,10 @@
       <c r="C3" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
       <c r="J3" s="75"/>
@@ -10535,9 +10781,9 @@
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="76"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
@@ -10576,10 +10822,10 @@
       <c r="D5" s="91"/>
       <c r="E5" s="76"/>
       <c r="F5" s="76"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
       <c r="K5" s="76"/>
       <c r="L5" s="76"/>
       <c r="M5" s="76"/>
@@ -10619,24 +10865,24 @@
       <c r="G6" s="76"/>
       <c r="H6" s="76"/>
       <c r="I6" s="76"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="172"/>
-      <c r="W6" s="172"/>
-      <c r="X6" s="172"/>
-      <c r="Y6" s="172"/>
-      <c r="Z6" s="172"/>
-      <c r="AA6" s="172"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="182"/>
       <c r="AB6" s="76"/>
       <c r="AC6" s="76"/>
       <c r="AD6" s="76"/>
@@ -10662,21 +10908,21 @@
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
       <c r="L7" s="76"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="168"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="168"/>
-      <c r="X7" s="168"/>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="168"/>
-      <c r="AA7" s="169"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="178"/>
+      <c r="U7" s="178"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
+      <c r="Y7" s="178"/>
+      <c r="Z7" s="178"/>
+      <c r="AA7" s="179"/>
       <c r="AB7" s="114"/>
       <c r="AC7" s="115"/>
       <c r="AD7" s="115"/>
@@ -10717,10 +10963,10 @@
       <c r="Y8" s="76"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="76"/>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="166"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175"/>
+      <c r="AE8" s="176"/>
       <c r="AF8" s="79"/>
       <c r="AG8" s="79"/>
       <c r="AH8" s="79"/>
@@ -14450,8 +14696,8 @@
   </sheetPr>
   <dimension ref="A1:AP103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z97" sqref="Z97"/>
+    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ96" sqref="AC96:AJ96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14465,210 +14711,210 @@
   <sheetData>
     <row r="1" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="183" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="183" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="183" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="183" t="s">
         <v>257</v>
       </c>
-      <c r="I2" s="173" t="s">
+      <c r="I2" s="183" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="173" t="s">
+      <c r="J2" s="183" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="173" t="s">
+      <c r="K2" s="183" t="s">
         <v>260</v>
       </c>
-      <c r="L2" s="173" t="s">
+      <c r="L2" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="M2" s="173" t="s">
+      <c r="M2" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="N2" s="173" t="s">
+      <c r="N2" s="183" t="s">
         <v>263</v>
       </c>
-      <c r="O2" s="173" t="s">
+      <c r="O2" s="183" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="173" t="s">
+      <c r="P2" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" s="173" t="s">
+      <c r="Q2" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="R2" s="173" t="s">
+      <c r="R2" s="183" t="s">
         <v>267</v>
       </c>
-      <c r="S2" s="173" t="s">
+      <c r="S2" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="T2" s="173" t="s">
+      <c r="T2" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="U2" s="173" t="s">
+      <c r="U2" s="183" t="s">
         <v>270</v>
       </c>
-      <c r="V2" s="173" t="s">
+      <c r="V2" s="183" t="s">
         <v>274</v>
       </c>
-      <c r="W2" s="173" t="s">
+      <c r="W2" s="183" t="s">
         <v>275</v>
       </c>
-      <c r="X2" s="173" t="s">
+      <c r="X2" s="183" t="s">
         <v>276</v>
       </c>
-      <c r="Y2" s="173" t="s">
+      <c r="Y2" s="183" t="s">
         <v>277</v>
       </c>
-      <c r="Z2" s="173" t="s">
+      <c r="Z2" s="183" t="s">
         <v>278</v>
       </c>
-      <c r="AA2" s="173" t="s">
+      <c r="AA2" s="183" t="s">
         <v>279</v>
       </c>
-      <c r="AB2" s="173" t="s">
+      <c r="AB2" s="183" t="s">
         <v>280</v>
       </c>
-      <c r="AC2" s="173" t="s">
+      <c r="AC2" s="183" t="s">
         <v>281</v>
       </c>
-      <c r="AD2" s="173" t="s">
+      <c r="AD2" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="AE2" s="176" t="s">
+      <c r="AE2" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="AG2" s="176" t="s">
+      <c r="AG2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="AH2" s="173" t="s">
+      <c r="AH2" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="AI2" s="173" t="s">
+      <c r="AI2" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="AJ2" s="173" t="s">
+      <c r="AJ2" s="183" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="174"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="184"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="187"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="184"/>
+      <c r="AJ3" s="184"/>
     </row>
     <row r="4" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="174"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="177"/>
-      <c r="AF4" s="174"/>
-      <c r="AG4" s="177"/>
-      <c r="AH4" s="174"/>
-      <c r="AI4" s="174"/>
-      <c r="AJ4" s="174"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="184"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="184"/>
+      <c r="AE4" s="187"/>
+      <c r="AF4" s="184"/>
+      <c r="AG4" s="187"/>
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="184"/>
+      <c r="AJ4" s="184"/>
     </row>
     <row r="5" spans="1:39" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="175"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="178"/>
-      <c r="AH5" s="175"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="175"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="185"/>
+      <c r="Z5" s="185"/>
+      <c r="AA5" s="185"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185"/>
+      <c r="AE5" s="188"/>
+      <c r="AF5" s="185"/>
+      <c r="AG5" s="188"/>
+      <c r="AH5" s="185"/>
+      <c r="AI5" s="185"/>
+      <c r="AJ5" s="185"/>
     </row>
     <row r="6" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
@@ -16306,103 +16552,103 @@
     </row>
     <row r="41" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="79"/>
-      <c r="D41" s="173" t="s">
+      <c r="D41" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="173" t="s">
+      <c r="E41" s="183" t="s">
         <v>254</v>
       </c>
-      <c r="F41" s="173" t="s">
+      <c r="F41" s="183" t="s">
         <v>255</v>
       </c>
-      <c r="G41" s="173" t="s">
+      <c r="G41" s="183" t="s">
         <v>256</v>
       </c>
-      <c r="H41" s="173" t="s">
+      <c r="H41" s="183" t="s">
         <v>257</v>
       </c>
-      <c r="I41" s="173" t="s">
+      <c r="I41" s="183" t="s">
         <v>259</v>
       </c>
-      <c r="J41" s="173" t="s">
+      <c r="J41" s="183" t="s">
         <v>258</v>
       </c>
-      <c r="K41" s="173" t="s">
+      <c r="K41" s="183" t="s">
         <v>260</v>
       </c>
-      <c r="L41" s="173" t="s">
+      <c r="L41" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="M41" s="173" t="s">
+      <c r="M41" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="N41" s="173" t="s">
+      <c r="N41" s="183" t="s">
         <v>263</v>
       </c>
-      <c r="O41" s="173" t="s">
+      <c r="O41" s="183" t="s">
         <v>264</v>
       </c>
-      <c r="P41" s="173" t="s">
+      <c r="P41" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="Q41" s="173" t="s">
+      <c r="Q41" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="R41" s="173" t="s">
+      <c r="R41" s="183" t="s">
         <v>267</v>
       </c>
-      <c r="S41" s="173" t="s">
+      <c r="S41" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="T41" s="173" t="s">
+      <c r="T41" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="U41" s="173" t="s">
+      <c r="U41" s="183" t="s">
         <v>270</v>
       </c>
-      <c r="V41" s="173" t="s">
+      <c r="V41" s="183" t="s">
         <v>274</v>
       </c>
-      <c r="W41" s="173" t="s">
+      <c r="W41" s="183" t="s">
         <v>275</v>
       </c>
-      <c r="X41" s="173" t="s">
+      <c r="X41" s="183" t="s">
         <v>276</v>
       </c>
-      <c r="Y41" s="173" t="s">
+      <c r="Y41" s="183" t="s">
         <v>277</v>
       </c>
-      <c r="Z41" s="173" t="s">
+      <c r="Z41" s="183" t="s">
         <v>278</v>
       </c>
-      <c r="AA41" s="173" t="s">
+      <c r="AA41" s="183" t="s">
         <v>279</v>
       </c>
-      <c r="AB41" s="173" t="s">
+      <c r="AB41" s="183" t="s">
         <v>280</v>
       </c>
-      <c r="AC41" s="173" t="s">
+      <c r="AC41" s="183" t="s">
         <v>281</v>
       </c>
-      <c r="AD41" s="173" t="s">
+      <c r="AD41" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="AE41" s="176" t="s">
+      <c r="AE41" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="AF41" s="173" t="s">
+      <c r="AF41" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="AG41" s="176" t="s">
+      <c r="AG41" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="AH41" s="173" t="s">
+      <c r="AH41" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="AI41" s="173" t="s">
+      <c r="AI41" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="AJ41" s="173" t="s">
+      <c r="AJ41" s="183" t="s">
         <v>288</v>
       </c>
       <c r="AK41" s="79"/>
@@ -16411,117 +16657,117 @@
     </row>
     <row r="42" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="79"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="174"/>
-      <c r="L42" s="174"/>
-      <c r="M42" s="174"/>
-      <c r="N42" s="174"/>
-      <c r="O42" s="174"/>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="174"/>
-      <c r="R42" s="174"/>
-      <c r="S42" s="174"/>
-      <c r="T42" s="174"/>
-      <c r="U42" s="174"/>
-      <c r="V42" s="174"/>
-      <c r="W42" s="174"/>
-      <c r="X42" s="174"/>
-      <c r="Y42" s="174"/>
-      <c r="Z42" s="174"/>
-      <c r="AA42" s="174"/>
-      <c r="AB42" s="174"/>
-      <c r="AC42" s="174"/>
-      <c r="AD42" s="174"/>
-      <c r="AE42" s="177"/>
-      <c r="AF42" s="174"/>
-      <c r="AG42" s="177"/>
-      <c r="AH42" s="174"/>
-      <c r="AI42" s="174"/>
-      <c r="AJ42" s="174"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="184"/>
+      <c r="J42" s="184"/>
+      <c r="K42" s="184"/>
+      <c r="L42" s="184"/>
+      <c r="M42" s="184"/>
+      <c r="N42" s="184"/>
+      <c r="O42" s="184"/>
+      <c r="P42" s="184"/>
+      <c r="Q42" s="184"/>
+      <c r="R42" s="184"/>
+      <c r="S42" s="184"/>
+      <c r="T42" s="184"/>
+      <c r="U42" s="184"/>
+      <c r="V42" s="184"/>
+      <c r="W42" s="184"/>
+      <c r="X42" s="184"/>
+      <c r="Y42" s="184"/>
+      <c r="Z42" s="184"/>
+      <c r="AA42" s="184"/>
+      <c r="AB42" s="184"/>
+      <c r="AC42" s="184"/>
+      <c r="AD42" s="184"/>
+      <c r="AE42" s="187"/>
+      <c r="AF42" s="184"/>
+      <c r="AG42" s="187"/>
+      <c r="AH42" s="184"/>
+      <c r="AI42" s="184"/>
+      <c r="AJ42" s="184"/>
       <c r="AK42" s="79"/>
       <c r="AL42" s="79"/>
       <c r="AM42" s="79"/>
     </row>
     <row r="43" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="79"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="174"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="174"/>
-      <c r="U43" s="174"/>
-      <c r="V43" s="174"/>
-      <c r="W43" s="174"/>
-      <c r="X43" s="174"/>
-      <c r="Y43" s="174"/>
-      <c r="Z43" s="174"/>
-      <c r="AA43" s="174"/>
-      <c r="AB43" s="174"/>
-      <c r="AC43" s="174"/>
-      <c r="AD43" s="174"/>
-      <c r="AE43" s="177"/>
-      <c r="AF43" s="174"/>
-      <c r="AG43" s="177"/>
-      <c r="AH43" s="174"/>
-      <c r="AI43" s="174"/>
-      <c r="AJ43" s="174"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="184"/>
+      <c r="I43" s="184"/>
+      <c r="J43" s="184"/>
+      <c r="K43" s="184"/>
+      <c r="L43" s="184"/>
+      <c r="M43" s="184"/>
+      <c r="N43" s="184"/>
+      <c r="O43" s="184"/>
+      <c r="P43" s="184"/>
+      <c r="Q43" s="184"/>
+      <c r="R43" s="184"/>
+      <c r="S43" s="184"/>
+      <c r="T43" s="184"/>
+      <c r="U43" s="184"/>
+      <c r="V43" s="184"/>
+      <c r="W43" s="184"/>
+      <c r="X43" s="184"/>
+      <c r="Y43" s="184"/>
+      <c r="Z43" s="184"/>
+      <c r="AA43" s="184"/>
+      <c r="AB43" s="184"/>
+      <c r="AC43" s="184"/>
+      <c r="AD43" s="184"/>
+      <c r="AE43" s="187"/>
+      <c r="AF43" s="184"/>
+      <c r="AG43" s="187"/>
+      <c r="AH43" s="184"/>
+      <c r="AI43" s="184"/>
+      <c r="AJ43" s="184"/>
       <c r="AK43" s="79"/>
       <c r="AL43" s="79"/>
       <c r="AM43" s="79"/>
     </row>
     <row r="44" spans="1:39" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="79"/>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
-      <c r="L44" s="175"/>
-      <c r="M44" s="175"/>
-      <c r="N44" s="175"/>
-      <c r="O44" s="175"/>
-      <c r="P44" s="175"/>
-      <c r="Q44" s="175"/>
-      <c r="R44" s="175"/>
-      <c r="S44" s="175"/>
-      <c r="T44" s="175"/>
-      <c r="U44" s="175"/>
-      <c r="V44" s="175"/>
-      <c r="W44" s="175"/>
-      <c r="X44" s="175"/>
-      <c r="Y44" s="175"/>
-      <c r="Z44" s="175"/>
-      <c r="AA44" s="175"/>
-      <c r="AB44" s="175"/>
-      <c r="AC44" s="175"/>
-      <c r="AD44" s="175"/>
-      <c r="AE44" s="178"/>
-      <c r="AF44" s="175"/>
-      <c r="AG44" s="178"/>
-      <c r="AH44" s="175"/>
-      <c r="AI44" s="175"/>
-      <c r="AJ44" s="175"/>
+      <c r="D44" s="185"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="185"/>
+      <c r="K44" s="185"/>
+      <c r="L44" s="185"/>
+      <c r="M44" s="185"/>
+      <c r="N44" s="185"/>
+      <c r="O44" s="185"/>
+      <c r="P44" s="185"/>
+      <c r="Q44" s="185"/>
+      <c r="R44" s="185"/>
+      <c r="S44" s="185"/>
+      <c r="T44" s="185"/>
+      <c r="U44" s="185"/>
+      <c r="V44" s="185"/>
+      <c r="W44" s="185"/>
+      <c r="X44" s="185"/>
+      <c r="Y44" s="185"/>
+      <c r="Z44" s="185"/>
+      <c r="AA44" s="185"/>
+      <c r="AB44" s="185"/>
+      <c r="AC44" s="185"/>
+      <c r="AD44" s="185"/>
+      <c r="AE44" s="188"/>
+      <c r="AF44" s="185"/>
+      <c r="AG44" s="188"/>
+      <c r="AH44" s="185"/>
+      <c r="AI44" s="185"/>
+      <c r="AJ44" s="185"/>
       <c r="AK44" s="79"/>
       <c r="AL44" s="79"/>
       <c r="AM44" s="79"/>
@@ -16727,10 +16973,10 @@
     </row>
     <row r="48" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="79"/>
-      <c r="B48" s="186" t="s">
+      <c r="B48" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="184" t="s">
+      <c r="C48" s="155" t="s">
         <v>297</v>
       </c>
       <c r="D48" s="92"/>
@@ -16772,10 +17018,10 @@
     </row>
     <row r="49" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="79"/>
-      <c r="B49" s="186" t="s">
+      <c r="B49" s="157" t="s">
         <v>232</v>
       </c>
-      <c r="C49" s="185" t="s">
+      <c r="C49" s="156" t="s">
         <v>298</v>
       </c>
       <c r="D49" s="92"/>
@@ -16817,10 +17063,10 @@
     </row>
     <row r="50" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="79"/>
-      <c r="B50" s="186" t="s">
+      <c r="B50" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="185" t="s">
+      <c r="C50" s="156" t="s">
         <v>296</v>
       </c>
       <c r="D50" s="92"/>
@@ -16862,10 +17108,10 @@
     </row>
     <row r="51" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="79"/>
-      <c r="B51" s="186" t="s">
+      <c r="B51" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="184" t="s">
+      <c r="C51" s="155" t="s">
         <v>294</v>
       </c>
       <c r="D51" s="92"/>
@@ -16907,10 +17153,10 @@
     </row>
     <row r="52" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="79"/>
-      <c r="B52" s="186" t="s">
+      <c r="B52" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="185" t="s">
+      <c r="C52" s="156" t="s">
         <v>295</v>
       </c>
       <c r="D52" s="92"/>
@@ -16952,10 +17198,10 @@
     </row>
     <row r="53" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="79"/>
-      <c r="B53" s="186" t="s">
+      <c r="B53" s="157" t="s">
         <v>235</v>
       </c>
-      <c r="C53" s="185" t="s">
+      <c r="C53" s="156" t="s">
         <v>299</v>
       </c>
       <c r="D53" s="92"/>
@@ -16997,10 +17243,10 @@
     </row>
     <row r="54" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="79"/>
-      <c r="B54" s="186" t="s">
+      <c r="B54" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="184" t="s">
+      <c r="C54" s="155" t="s">
         <v>300</v>
       </c>
       <c r="D54" s="92"/>
@@ -17042,10 +17288,10 @@
     </row>
     <row r="55" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79"/>
-      <c r="B55" s="186" t="s">
+      <c r="B55" s="157" t="s">
         <v>303</v>
       </c>
-      <c r="C55" s="185" t="s">
+      <c r="C55" s="156" t="s">
         <v>301</v>
       </c>
       <c r="D55" s="92"/>
@@ -17087,10 +17333,10 @@
     </row>
     <row r="56" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="79"/>
-      <c r="B56" s="186" t="s">
+      <c r="B56" s="157" t="s">
         <v>304</v>
       </c>
-      <c r="C56" s="188" t="s">
+      <c r="C56" s="159" t="s">
         <v>302</v>
       </c>
       <c r="D56" s="92"/>
@@ -17132,10 +17378,10 @@
     </row>
     <row r="57" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="79"/>
-      <c r="B57" s="186" t="s">
+      <c r="B57" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="187" t="s">
+      <c r="C57" s="158" t="s">
         <v>305</v>
       </c>
       <c r="D57" s="92"/>
@@ -17177,10 +17423,10 @@
     </row>
     <row r="58" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="79"/>
-      <c r="B58" s="186" t="s">
+      <c r="B58" s="157" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="188" t="s">
+      <c r="C58" s="159" t="s">
         <v>306</v>
       </c>
       <c r="D58" s="92"/>
@@ -17222,10 +17468,10 @@
     </row>
     <row r="59" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="79"/>
-      <c r="B59" s="186" t="s">
+      <c r="B59" s="157" t="s">
         <v>315</v>
       </c>
-      <c r="C59" s="185" t="s">
+      <c r="C59" s="156" t="s">
         <v>307</v>
       </c>
       <c r="D59" s="92"/>
@@ -17267,10 +17513,10 @@
     </row>
     <row r="60" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="79"/>
-      <c r="B60" s="190" t="s">
+      <c r="B60" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="189" t="s">
+      <c r="C60" s="160" t="s">
         <v>308</v>
       </c>
       <c r="D60" s="91"/>
@@ -17312,10 +17558,10 @@
     </row>
     <row r="61" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="79"/>
-      <c r="B61" s="186" t="s">
+      <c r="B61" s="157" t="s">
         <v>316</v>
       </c>
-      <c r="C61" s="188" t="s">
+      <c r="C61" s="159" t="s">
         <v>309</v>
       </c>
       <c r="D61" s="92"/>
@@ -17357,10 +17603,10 @@
     </row>
     <row r="62" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="79"/>
-      <c r="B62" s="186" t="s">
+      <c r="B62" s="157" t="s">
         <v>317</v>
       </c>
-      <c r="C62" s="185" t="s">
+      <c r="C62" s="156" t="s">
         <v>310</v>
       </c>
       <c r="D62" s="92"/>
@@ -17402,10 +17648,10 @@
     </row>
     <row r="63" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="79"/>
-      <c r="B63" s="186" t="s">
+      <c r="B63" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="187" t="s">
+      <c r="C63" s="158" t="s">
         <v>311</v>
       </c>
       <c r="D63" s="92"/>
@@ -17447,10 +17693,10 @@
     </row>
     <row r="64" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
-      <c r="B64" s="186" t="s">
+      <c r="B64" s="157" t="s">
         <v>318</v>
       </c>
-      <c r="C64" s="185" t="s">
+      <c r="C64" s="156" t="s">
         <v>312</v>
       </c>
       <c r="D64" s="92"/>
@@ -17492,10 +17738,10 @@
     </row>
     <row r="65" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79"/>
-      <c r="B65" s="186" t="s">
+      <c r="B65" s="157" t="s">
         <v>319</v>
       </c>
-      <c r="C65" s="185" t="s">
+      <c r="C65" s="156" t="s">
         <v>313</v>
       </c>
       <c r="D65" s="92"/>
@@ -17549,23 +17795,23 @@
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
       <c r="I66" s="76"/>
-      <c r="J66" s="191"/>
-      <c r="K66" s="191"/>
-      <c r="L66" s="191"/>
-      <c r="M66" s="191"/>
-      <c r="N66" s="191"/>
-      <c r="O66" s="191"/>
-      <c r="P66" s="191"/>
-      <c r="Q66" s="191"/>
-      <c r="R66" s="191"/>
-      <c r="S66" s="191"/>
-      <c r="T66" s="191"/>
-      <c r="U66" s="191"/>
-      <c r="V66" s="191"/>
-      <c r="W66" s="191"/>
-      <c r="X66" s="191"/>
-      <c r="Y66" s="191"/>
-      <c r="Z66" s="191"/>
+      <c r="J66" s="162"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="162"/>
+      <c r="M66" s="162"/>
+      <c r="N66" s="162"/>
+      <c r="O66" s="162"/>
+      <c r="P66" s="162"/>
+      <c r="Q66" s="162"/>
+      <c r="R66" s="162"/>
+      <c r="S66" s="162"/>
+      <c r="T66" s="162"/>
+      <c r="U66" s="162"/>
+      <c r="V66" s="162"/>
+      <c r="W66" s="162"/>
+      <c r="X66" s="162"/>
+      <c r="Y66" s="162"/>
+      <c r="Z66" s="162"/>
       <c r="AA66" s="77"/>
       <c r="AB66" s="77"/>
       <c r="AC66" s="77"/>
@@ -17644,7 +17890,7 @@
       <c r="L68" s="77"/>
       <c r="M68" s="77"/>
       <c r="N68" s="77"/>
-      <c r="O68" s="192"/>
+      <c r="O68" s="163"/>
       <c r="P68" s="77"/>
       <c r="Q68" s="77"/>
       <c r="R68" s="77"/>
@@ -17690,7 +17936,7 @@
       <c r="M69" s="77"/>
       <c r="N69" s="77"/>
       <c r="O69" s="77"/>
-      <c r="P69" s="192"/>
+      <c r="P69" s="163"/>
       <c r="Q69" s="77"/>
       <c r="R69" s="77"/>
       <c r="S69" s="77"/>
@@ -17735,8 +17981,8 @@
       <c r="M70" s="77"/>
       <c r="N70" s="77"/>
       <c r="O70" s="77"/>
-      <c r="P70" s="192"/>
-      <c r="Q70" s="192"/>
+      <c r="P70" s="163"/>
+      <c r="Q70" s="163"/>
       <c r="R70" s="77"/>
       <c r="S70" s="77"/>
       <c r="T70" s="77"/>
@@ -17790,8 +18036,8 @@
       <c r="W71" s="76"/>
       <c r="X71" s="76"/>
       <c r="Y71" s="76"/>
-      <c r="Z71" s="192"/>
-      <c r="AA71" s="192"/>
+      <c r="Z71" s="163"/>
+      <c r="AA71" s="163"/>
       <c r="AB71" s="76"/>
       <c r="AC71" s="76"/>
       <c r="AD71" s="76"/>
@@ -17809,103 +18055,103 @@
     </row>
     <row r="72" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="79"/>
-      <c r="D72" s="173" t="s">
+      <c r="D72" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="E72" s="173" t="s">
+      <c r="E72" s="183" t="s">
         <v>254</v>
       </c>
-      <c r="F72" s="173" t="s">
+      <c r="F72" s="183" t="s">
         <v>255</v>
       </c>
-      <c r="G72" s="173" t="s">
+      <c r="G72" s="183" t="s">
         <v>256</v>
       </c>
-      <c r="H72" s="173" t="s">
+      <c r="H72" s="183" t="s">
         <v>257</v>
       </c>
-      <c r="I72" s="173" t="s">
+      <c r="I72" s="183" t="s">
         <v>259</v>
       </c>
-      <c r="J72" s="173" t="s">
+      <c r="J72" s="183" t="s">
         <v>258</v>
       </c>
-      <c r="K72" s="173" t="s">
+      <c r="K72" s="183" t="s">
         <v>260</v>
       </c>
-      <c r="L72" s="173" t="s">
+      <c r="L72" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="M72" s="173" t="s">
+      <c r="M72" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="N72" s="173" t="s">
+      <c r="N72" s="183" t="s">
         <v>263</v>
       </c>
-      <c r="O72" s="173" t="s">
+      <c r="O72" s="183" t="s">
         <v>264</v>
       </c>
-      <c r="P72" s="173" t="s">
+      <c r="P72" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="Q72" s="173" t="s">
+      <c r="Q72" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="R72" s="173" t="s">
+      <c r="R72" s="183" t="s">
         <v>267</v>
       </c>
-      <c r="S72" s="173" t="s">
+      <c r="S72" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="T72" s="173" t="s">
+      <c r="T72" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="U72" s="173" t="s">
+      <c r="U72" s="183" t="s">
         <v>270</v>
       </c>
-      <c r="V72" s="173" t="s">
+      <c r="V72" s="183" t="s">
         <v>274</v>
       </c>
-      <c r="W72" s="173" t="s">
+      <c r="W72" s="183" t="s">
         <v>275</v>
       </c>
-      <c r="X72" s="173" t="s">
+      <c r="X72" s="183" t="s">
         <v>276</v>
       </c>
-      <c r="Y72" s="173" t="s">
+      <c r="Y72" s="183" t="s">
         <v>277</v>
       </c>
-      <c r="Z72" s="173" t="s">
+      <c r="Z72" s="183" t="s">
         <v>278</v>
       </c>
-      <c r="AA72" s="173" t="s">
+      <c r="AA72" s="183" t="s">
         <v>279</v>
       </c>
-      <c r="AB72" s="173" t="s">
+      <c r="AB72" s="183" t="s">
         <v>280</v>
       </c>
-      <c r="AC72" s="173" t="s">
+      <c r="AC72" s="183" t="s">
         <v>281</v>
       </c>
-      <c r="AD72" s="173" t="s">
+      <c r="AD72" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="AE72" s="176" t="s">
+      <c r="AE72" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="AF72" s="173" t="s">
+      <c r="AF72" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="AG72" s="176" t="s">
+      <c r="AG72" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="AH72" s="173" t="s">
+      <c r="AH72" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="AI72" s="173" t="s">
+      <c r="AI72" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="AJ72" s="173" t="s">
+      <c r="AJ72" s="183" t="s">
         <v>288</v>
       </c>
       <c r="AK72" s="79"/>
@@ -17914,117 +18160,117 @@
     </row>
     <row r="73" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="79"/>
-      <c r="D73" s="174"/>
-      <c r="E73" s="174"/>
-      <c r="F73" s="174"/>
-      <c r="G73" s="174"/>
-      <c r="H73" s="174"/>
-      <c r="I73" s="174"/>
-      <c r="J73" s="174"/>
-      <c r="K73" s="174"/>
-      <c r="L73" s="174"/>
-      <c r="M73" s="174"/>
-      <c r="N73" s="174"/>
-      <c r="O73" s="174"/>
-      <c r="P73" s="174"/>
-      <c r="Q73" s="174"/>
-      <c r="R73" s="174"/>
-      <c r="S73" s="174"/>
-      <c r="T73" s="174"/>
-      <c r="U73" s="174"/>
-      <c r="V73" s="174"/>
-      <c r="W73" s="174"/>
-      <c r="X73" s="174"/>
-      <c r="Y73" s="174"/>
-      <c r="Z73" s="174"/>
-      <c r="AA73" s="174"/>
-      <c r="AB73" s="174"/>
-      <c r="AC73" s="174"/>
-      <c r="AD73" s="174"/>
-      <c r="AE73" s="177"/>
-      <c r="AF73" s="174"/>
-      <c r="AG73" s="177"/>
-      <c r="AH73" s="174"/>
-      <c r="AI73" s="174"/>
-      <c r="AJ73" s="174"/>
+      <c r="D73" s="184"/>
+      <c r="E73" s="184"/>
+      <c r="F73" s="184"/>
+      <c r="G73" s="184"/>
+      <c r="H73" s="184"/>
+      <c r="I73" s="184"/>
+      <c r="J73" s="184"/>
+      <c r="K73" s="184"/>
+      <c r="L73" s="184"/>
+      <c r="M73" s="184"/>
+      <c r="N73" s="184"/>
+      <c r="O73" s="184"/>
+      <c r="P73" s="184"/>
+      <c r="Q73" s="184"/>
+      <c r="R73" s="184"/>
+      <c r="S73" s="184"/>
+      <c r="T73" s="184"/>
+      <c r="U73" s="184"/>
+      <c r="V73" s="184"/>
+      <c r="W73" s="184"/>
+      <c r="X73" s="184"/>
+      <c r="Y73" s="184"/>
+      <c r="Z73" s="184"/>
+      <c r="AA73" s="184"/>
+      <c r="AB73" s="184"/>
+      <c r="AC73" s="184"/>
+      <c r="AD73" s="184"/>
+      <c r="AE73" s="187"/>
+      <c r="AF73" s="184"/>
+      <c r="AG73" s="187"/>
+      <c r="AH73" s="184"/>
+      <c r="AI73" s="184"/>
+      <c r="AJ73" s="184"/>
       <c r="AK73" s="79"/>
       <c r="AL73" s="79"/>
       <c r="AM73" s="79"/>
     </row>
     <row r="74" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79"/>
-      <c r="D74" s="174"/>
-      <c r="E74" s="174"/>
-      <c r="F74" s="174"/>
-      <c r="G74" s="174"/>
-      <c r="H74" s="174"/>
-      <c r="I74" s="174"/>
-      <c r="J74" s="174"/>
-      <c r="K74" s="174"/>
-      <c r="L74" s="174"/>
-      <c r="M74" s="174"/>
-      <c r="N74" s="174"/>
-      <c r="O74" s="174"/>
-      <c r="P74" s="174"/>
-      <c r="Q74" s="174"/>
-      <c r="R74" s="174"/>
-      <c r="S74" s="174"/>
-      <c r="T74" s="174"/>
-      <c r="U74" s="174"/>
-      <c r="V74" s="174"/>
-      <c r="W74" s="174"/>
-      <c r="X74" s="174"/>
-      <c r="Y74" s="174"/>
-      <c r="Z74" s="174"/>
-      <c r="AA74" s="174"/>
-      <c r="AB74" s="174"/>
-      <c r="AC74" s="174"/>
-      <c r="AD74" s="174"/>
-      <c r="AE74" s="177"/>
-      <c r="AF74" s="174"/>
-      <c r="AG74" s="177"/>
-      <c r="AH74" s="174"/>
-      <c r="AI74" s="174"/>
-      <c r="AJ74" s="174"/>
+      <c r="D74" s="184"/>
+      <c r="E74" s="184"/>
+      <c r="F74" s="184"/>
+      <c r="G74" s="184"/>
+      <c r="H74" s="184"/>
+      <c r="I74" s="184"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="184"/>
+      <c r="L74" s="184"/>
+      <c r="M74" s="184"/>
+      <c r="N74" s="184"/>
+      <c r="O74" s="184"/>
+      <c r="P74" s="184"/>
+      <c r="Q74" s="184"/>
+      <c r="R74" s="184"/>
+      <c r="S74" s="184"/>
+      <c r="T74" s="184"/>
+      <c r="U74" s="184"/>
+      <c r="V74" s="184"/>
+      <c r="W74" s="184"/>
+      <c r="X74" s="184"/>
+      <c r="Y74" s="184"/>
+      <c r="Z74" s="184"/>
+      <c r="AA74" s="184"/>
+      <c r="AB74" s="184"/>
+      <c r="AC74" s="184"/>
+      <c r="AD74" s="184"/>
+      <c r="AE74" s="187"/>
+      <c r="AF74" s="184"/>
+      <c r="AG74" s="187"/>
+      <c r="AH74" s="184"/>
+      <c r="AI74" s="184"/>
+      <c r="AJ74" s="184"/>
       <c r="AK74" s="79"/>
       <c r="AL74" s="79"/>
       <c r="AM74" s="79"/>
     </row>
     <row r="75" spans="1:39" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="79"/>
-      <c r="D75" s="175"/>
-      <c r="E75" s="175"/>
-      <c r="F75" s="175"/>
-      <c r="G75" s="175"/>
-      <c r="H75" s="175"/>
-      <c r="I75" s="175"/>
-      <c r="J75" s="175"/>
-      <c r="K75" s="175"/>
-      <c r="L75" s="175"/>
-      <c r="M75" s="175"/>
-      <c r="N75" s="175"/>
-      <c r="O75" s="175"/>
-      <c r="P75" s="175"/>
-      <c r="Q75" s="175"/>
-      <c r="R75" s="175"/>
-      <c r="S75" s="175"/>
-      <c r="T75" s="175"/>
-      <c r="U75" s="175"/>
-      <c r="V75" s="175"/>
-      <c r="W75" s="175"/>
-      <c r="X75" s="175"/>
-      <c r="Y75" s="175"/>
-      <c r="Z75" s="175"/>
-      <c r="AA75" s="175"/>
-      <c r="AB75" s="175"/>
-      <c r="AC75" s="175"/>
-      <c r="AD75" s="175"/>
-      <c r="AE75" s="178"/>
-      <c r="AF75" s="175"/>
-      <c r="AG75" s="178"/>
-      <c r="AH75" s="175"/>
-      <c r="AI75" s="175"/>
-      <c r="AJ75" s="175"/>
+      <c r="D75" s="185"/>
+      <c r="E75" s="185"/>
+      <c r="F75" s="185"/>
+      <c r="G75" s="185"/>
+      <c r="H75" s="185"/>
+      <c r="I75" s="185"/>
+      <c r="J75" s="185"/>
+      <c r="K75" s="185"/>
+      <c r="L75" s="185"/>
+      <c r="M75" s="185"/>
+      <c r="N75" s="185"/>
+      <c r="O75" s="185"/>
+      <c r="P75" s="185"/>
+      <c r="Q75" s="185"/>
+      <c r="R75" s="185"/>
+      <c r="S75" s="185"/>
+      <c r="T75" s="185"/>
+      <c r="U75" s="185"/>
+      <c r="V75" s="185"/>
+      <c r="W75" s="185"/>
+      <c r="X75" s="185"/>
+      <c r="Y75" s="185"/>
+      <c r="Z75" s="185"/>
+      <c r="AA75" s="185"/>
+      <c r="AB75" s="185"/>
+      <c r="AC75" s="185"/>
+      <c r="AD75" s="185"/>
+      <c r="AE75" s="188"/>
+      <c r="AF75" s="185"/>
+      <c r="AG75" s="188"/>
+      <c r="AH75" s="185"/>
+      <c r="AI75" s="185"/>
+      <c r="AJ75" s="185"/>
       <c r="AK75" s="79"/>
       <c r="AL75" s="79"/>
       <c r="AM75" s="79"/>
@@ -18121,10 +18367,10 @@
     </row>
     <row r="78" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="79"/>
-      <c r="B78" s="186" t="s">
+      <c r="B78" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="184" t="s">
+      <c r="C78" s="155" t="s">
         <v>323</v>
       </c>
       <c r="D78" s="92"/>
@@ -18166,10 +18412,10 @@
     </row>
     <row r="79" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="79"/>
-      <c r="B79" s="186" t="s">
+      <c r="B79" s="157" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="185" t="s">
+      <c r="C79" s="156" t="s">
         <v>324</v>
       </c>
       <c r="D79" s="92"/>
@@ -18210,10 +18456,10 @@
     </row>
     <row r="80" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="79"/>
-      <c r="B80" s="186" t="s">
+      <c r="B80" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="185" t="s">
+      <c r="C80" s="156" t="s">
         <v>325</v>
       </c>
       <c r="D80" s="92"/>
@@ -18255,10 +18501,10 @@
     </row>
     <row r="81" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="79"/>
-      <c r="B81" s="186" t="s">
+      <c r="B81" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="184" t="s">
+      <c r="C81" s="155" t="s">
         <v>326</v>
       </c>
       <c r="D81" s="92"/>
@@ -18300,10 +18546,10 @@
     </row>
     <row r="82" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="79"/>
-      <c r="B82" s="186" t="s">
+      <c r="B82" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="C82" s="185" t="s">
+      <c r="C82" s="156" t="s">
         <v>327</v>
       </c>
       <c r="D82" s="92"/>
@@ -18345,10 +18591,10 @@
     </row>
     <row r="83" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="79"/>
-      <c r="B83" s="186" t="s">
+      <c r="B83" s="157" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="185" t="s">
+      <c r="C83" s="156" t="s">
         <v>328</v>
       </c>
       <c r="D83" s="92"/>
@@ -18390,10 +18636,10 @@
     </row>
     <row r="84" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="79"/>
-      <c r="B84" s="186" t="s">
+      <c r="B84" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="184" t="s">
+      <c r="C84" s="155" t="s">
         <v>329</v>
       </c>
       <c r="D84" s="92"/>
@@ -18435,10 +18681,10 @@
     </row>
     <row r="85" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="79"/>
-      <c r="B85" s="186" t="s">
+      <c r="B85" s="157" t="s">
         <v>303</v>
       </c>
-      <c r="C85" s="185" t="s">
+      <c r="C85" s="156" t="s">
         <v>330</v>
       </c>
       <c r="D85" s="92"/>
@@ -18480,10 +18726,10 @@
     </row>
     <row r="86" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="79"/>
-      <c r="B86" s="186" t="s">
+      <c r="B86" s="157" t="s">
         <v>304</v>
       </c>
-      <c r="C86" s="188" t="s">
+      <c r="C86" s="159" t="s">
         <v>331</v>
       </c>
       <c r="D86" s="92"/>
@@ -18525,10 +18771,10 @@
     </row>
     <row r="87" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="79"/>
-      <c r="B87" s="186" t="s">
+      <c r="B87" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="187" t="s">
+      <c r="C87" s="158" t="s">
         <v>339</v>
       </c>
       <c r="D87" s="92"/>
@@ -18570,10 +18816,10 @@
     </row>
     <row r="88" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="79"/>
-      <c r="B88" s="186" t="s">
+      <c r="B88" s="157" t="s">
         <v>314</v>
       </c>
-      <c r="C88" s="188" t="s">
+      <c r="C88" s="159" t="s">
         <v>332</v>
       </c>
       <c r="D88" s="92"/>
@@ -18615,10 +18861,10 @@
     </row>
     <row r="89" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="79"/>
-      <c r="B89" s="186" t="s">
+      <c r="B89" s="157" t="s">
         <v>315</v>
       </c>
-      <c r="C89" s="185" t="s">
+      <c r="C89" s="156" t="s">
         <v>307</v>
       </c>
       <c r="D89" s="92"/>
@@ -18660,10 +18906,10 @@
     </row>
     <row r="90" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="79"/>
-      <c r="B90" s="190" t="s">
+      <c r="B90" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="189" t="s">
+      <c r="C90" s="160" t="s">
         <v>333</v>
       </c>
       <c r="D90" s="92"/>
@@ -18705,10 +18951,10 @@
     </row>
     <row r="91" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="79"/>
-      <c r="B91" s="186" t="s">
+      <c r="B91" s="157" t="s">
         <v>316</v>
       </c>
-      <c r="C91" s="188" t="s">
+      <c r="C91" s="159" t="s">
         <v>334</v>
       </c>
       <c r="D91" s="92"/>
@@ -18750,10 +18996,10 @@
     </row>
     <row r="92" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="79"/>
-      <c r="B92" s="186" t="s">
+      <c r="B92" s="157" t="s">
         <v>317</v>
       </c>
-      <c r="C92" s="185" t="s">
+      <c r="C92" s="156" t="s">
         <v>338</v>
       </c>
       <c r="D92" s="92"/>
@@ -18795,10 +19041,10 @@
     </row>
     <row r="93" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="79"/>
-      <c r="B93" s="186" t="s">
+      <c r="B93" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="187" t="s">
+      <c r="C93" s="158" t="s">
         <v>335</v>
       </c>
       <c r="D93" s="92"/>
@@ -18840,10 +19086,10 @@
     </row>
     <row r="94" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="79"/>
-      <c r="B94" s="186" t="s">
+      <c r="B94" s="157" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="185" t="s">
+      <c r="C94" s="156" t="s">
         <v>337</v>
       </c>
       <c r="D94" s="92"/>
@@ -18885,10 +19131,10 @@
     </row>
     <row r="95" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="79"/>
-      <c r="B95" s="186" t="s">
+      <c r="B95" s="157" t="s">
         <v>319</v>
       </c>
-      <c r="C95" s="185" t="s">
+      <c r="C95" s="156" t="s">
         <v>336</v>
       </c>
       <c r="D95" s="92"/>
@@ -19091,14 +19337,14 @@
       <c r="Z99" s="76"/>
       <c r="AA99" s="76"/>
       <c r="AB99" s="76"/>
-      <c r="AC99" s="192"/>
-      <c r="AD99" s="192"/>
-      <c r="AE99" s="192"/>
-      <c r="AF99" s="192"/>
-      <c r="AG99" s="192"/>
-      <c r="AH99" s="192"/>
-      <c r="AI99" s="192"/>
-      <c r="AJ99" s="193"/>
+      <c r="AC99" s="163"/>
+      <c r="AD99" s="163"/>
+      <c r="AE99" s="163"/>
+      <c r="AF99" s="163"/>
+      <c r="AG99" s="163"/>
+      <c r="AH99" s="163"/>
+      <c r="AI99" s="163"/>
+      <c r="AJ99" s="164"/>
     </row>
     <row r="100" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="89" t="s">
@@ -19136,7 +19382,7 @@
       <c r="AD100" s="76"/>
       <c r="AE100" s="76"/>
       <c r="AF100" s="76"/>
-      <c r="AG100" s="192"/>
+      <c r="AG100" s="163"/>
       <c r="AH100" s="76"/>
       <c r="AI100" s="76"/>
       <c r="AJ100" s="82"/>
@@ -19179,7 +19425,7 @@
       <c r="AF101" s="76"/>
       <c r="AG101" s="76"/>
       <c r="AH101" s="76"/>
-      <c r="AI101" s="192"/>
+      <c r="AI101" s="163"/>
       <c r="AJ101" s="82"/>
     </row>
     <row r="102" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -19221,7 +19467,7 @@
       <c r="AG102" s="76"/>
       <c r="AH102" s="76"/>
       <c r="AI102" s="76"/>
-      <c r="AJ102" s="193"/>
+      <c r="AJ102" s="164"/>
     </row>
     <row r="103" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="90" t="s">
@@ -19266,49 +19512,46 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="AH72:AH75"/>
-    <mergeCell ref="AI72:AI75"/>
-    <mergeCell ref="AJ72:AJ75"/>
-    <mergeCell ref="AC72:AC75"/>
-    <mergeCell ref="AD72:AD75"/>
-    <mergeCell ref="AE72:AE75"/>
-    <mergeCell ref="AF72:AF75"/>
-    <mergeCell ref="AG72:AG75"/>
-    <mergeCell ref="X72:X75"/>
-    <mergeCell ref="Y72:Y75"/>
-    <mergeCell ref="Z72:Z75"/>
-    <mergeCell ref="AA72:AA75"/>
-    <mergeCell ref="AB72:AB75"/>
-    <mergeCell ref="S72:S75"/>
-    <mergeCell ref="T72:T75"/>
-    <mergeCell ref="U72:U75"/>
-    <mergeCell ref="V72:V75"/>
-    <mergeCell ref="W72:W75"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="Q72:Q75"/>
-    <mergeCell ref="R72:R75"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="M72:M75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="AG41:AG44"/>
+    <mergeCell ref="AH41:AH44"/>
+    <mergeCell ref="AI41:AI44"/>
+    <mergeCell ref="AJ41:AJ44"/>
+    <mergeCell ref="AB41:AB44"/>
+    <mergeCell ref="AC41:AC44"/>
+    <mergeCell ref="AD41:AD44"/>
+    <mergeCell ref="AE41:AE44"/>
+    <mergeCell ref="AF41:AF44"/>
+    <mergeCell ref="W41:W44"/>
+    <mergeCell ref="X41:X44"/>
+    <mergeCell ref="Y41:Y44"/>
+    <mergeCell ref="Z41:Z44"/>
+    <mergeCell ref="AA41:AA44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="O41:O44"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="R41:R44"/>
+    <mergeCell ref="S41:S44"/>
+    <mergeCell ref="T41:T44"/>
+    <mergeCell ref="U41:U44"/>
+    <mergeCell ref="V41:V44"/>
     <mergeCell ref="AJ2:AJ5"/>
     <mergeCell ref="R2:R5"/>
     <mergeCell ref="S2:S5"/>
@@ -19325,46 +19568,49 @@
     <mergeCell ref="Z2:Z5"/>
     <mergeCell ref="AA2:AA5"/>
     <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="O41:O44"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AI2:AI5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="Q41:Q44"/>
-    <mergeCell ref="R41:R44"/>
-    <mergeCell ref="S41:S44"/>
-    <mergeCell ref="T41:T44"/>
-    <mergeCell ref="U41:U44"/>
-    <mergeCell ref="V41:V44"/>
-    <mergeCell ref="W41:W44"/>
-    <mergeCell ref="X41:X44"/>
-    <mergeCell ref="Y41:Y44"/>
-    <mergeCell ref="Z41:Z44"/>
-    <mergeCell ref="AA41:AA44"/>
-    <mergeCell ref="AB41:AB44"/>
-    <mergeCell ref="AC41:AC44"/>
-    <mergeCell ref="AD41:AD44"/>
-    <mergeCell ref="AE41:AE44"/>
-    <mergeCell ref="AF41:AF44"/>
-    <mergeCell ref="AG41:AG44"/>
-    <mergeCell ref="AH41:AH44"/>
-    <mergeCell ref="AI41:AI44"/>
-    <mergeCell ref="AJ41:AJ44"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="M72:M75"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="O72:O75"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="Q72:Q75"/>
+    <mergeCell ref="R72:R75"/>
+    <mergeCell ref="S72:S75"/>
+    <mergeCell ref="T72:T75"/>
+    <mergeCell ref="U72:U75"/>
+    <mergeCell ref="V72:V75"/>
+    <mergeCell ref="W72:W75"/>
+    <mergeCell ref="X72:X75"/>
+    <mergeCell ref="Y72:Y75"/>
+    <mergeCell ref="Z72:Z75"/>
+    <mergeCell ref="AA72:AA75"/>
+    <mergeCell ref="AB72:AB75"/>
+    <mergeCell ref="AH72:AH75"/>
+    <mergeCell ref="AI72:AI75"/>
+    <mergeCell ref="AJ72:AJ75"/>
+    <mergeCell ref="AC72:AC75"/>
+    <mergeCell ref="AD72:AD75"/>
+    <mergeCell ref="AE72:AE75"/>
+    <mergeCell ref="AF72:AF75"/>
+    <mergeCell ref="AG72:AG75"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
@@ -19377,6 +19623,1678 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA02737-0D4C-4687-9BA9-997A8AABDE52}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AM16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="38" customWidth="1"/>
+    <col min="4" max="36" width="5.5703125" style="38" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="200"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="202" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="202" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="202" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="202" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="202" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="202" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="202" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="202" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2" s="202" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q2" s="202" t="s">
+        <v>266</v>
+      </c>
+      <c r="R2" s="202" t="s">
+        <v>267</v>
+      </c>
+      <c r="S2" s="202" t="s">
+        <v>268</v>
+      </c>
+      <c r="T2" s="202" t="s">
+        <v>269</v>
+      </c>
+      <c r="U2" s="202" t="s">
+        <v>270</v>
+      </c>
+      <c r="V2" s="202" t="s">
+        <v>274</v>
+      </c>
+      <c r="W2" s="202" t="s">
+        <v>275</v>
+      </c>
+      <c r="X2" s="202" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y2" s="202" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z2" s="202" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA2" s="202" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB2" s="202" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC2" s="202" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD2" s="202" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE2" s="203" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF2" s="202" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG2" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH2" s="202" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI2" s="202" t="s">
+        <v>287</v>
+      </c>
+      <c r="AJ2" s="202" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="200"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="205"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="205"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="204"/>
+      <c r="AJ3" s="204"/>
+    </row>
+    <row r="4" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="200"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="204"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
+      <c r="AC4" s="204"/>
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="204"/>
+      <c r="AG4" s="205"/>
+      <c r="AH4" s="204"/>
+      <c r="AI4" s="204"/>
+      <c r="AJ4" s="204"/>
+    </row>
+    <row r="5" spans="1:39" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="200"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="207"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="207"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+    </row>
+    <row r="6" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="79"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="210">
+        <v>1</v>
+      </c>
+      <c r="E6" s="210">
+        <v>2</v>
+      </c>
+      <c r="F6" s="210">
+        <v>3</v>
+      </c>
+      <c r="G6" s="210">
+        <v>4</v>
+      </c>
+      <c r="H6" s="210">
+        <v>5</v>
+      </c>
+      <c r="I6" s="210">
+        <v>6</v>
+      </c>
+      <c r="J6" s="210">
+        <v>7</v>
+      </c>
+      <c r="K6" s="210">
+        <v>8</v>
+      </c>
+      <c r="L6" s="210">
+        <v>9</v>
+      </c>
+      <c r="M6" s="210">
+        <v>10</v>
+      </c>
+      <c r="N6" s="210">
+        <v>11</v>
+      </c>
+      <c r="O6" s="210">
+        <v>12</v>
+      </c>
+      <c r="P6" s="210">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="210">
+        <v>14</v>
+      </c>
+      <c r="R6" s="211">
+        <v>15</v>
+      </c>
+      <c r="S6" s="210">
+        <v>16</v>
+      </c>
+      <c r="T6" s="210">
+        <v>17</v>
+      </c>
+      <c r="U6" s="210">
+        <v>18</v>
+      </c>
+      <c r="V6" s="210">
+        <v>19</v>
+      </c>
+      <c r="W6" s="210">
+        <v>20</v>
+      </c>
+      <c r="X6" s="210">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="210">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="210">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="210">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="210">
+        <v>25</v>
+      </c>
+      <c r="AC6" s="210">
+        <v>26</v>
+      </c>
+      <c r="AD6" s="210">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="210">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="211">
+        <v>29</v>
+      </c>
+      <c r="AG6" s="210">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="210">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="210">
+        <v>32</v>
+      </c>
+      <c r="AJ6" s="210">
+        <v>33</v>
+      </c>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="79"/>
+      <c r="AM6" s="79"/>
+    </row>
+    <row r="7" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="213" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="214"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="216"/>
+      <c r="W7" s="216"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="216"/>
+      <c r="Z7" s="216"/>
+      <c r="AA7" s="216"/>
+      <c r="AB7" s="216"/>
+      <c r="AC7" s="216"/>
+      <c r="AD7" s="216"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="216"/>
+      <c r="AG7" s="216"/>
+      <c r="AH7" s="216"/>
+      <c r="AI7" s="216"/>
+      <c r="AJ7" s="217"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+    </row>
+    <row r="8" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="220"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="216"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="221"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="216"/>
+      <c r="X8" s="216"/>
+      <c r="Y8" s="216"/>
+      <c r="Z8" s="216"/>
+      <c r="AA8" s="216"/>
+      <c r="AB8" s="216"/>
+      <c r="AC8" s="216"/>
+      <c r="AD8" s="216"/>
+      <c r="AE8" s="216"/>
+      <c r="AF8" s="216"/>
+      <c r="AG8" s="216"/>
+      <c r="AH8" s="216"/>
+      <c r="AI8" s="216"/>
+      <c r="AJ8" s="217"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="79"/>
+      <c r="AM8" s="79"/>
+    </row>
+    <row r="9" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="219" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="220"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="216"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="216"/>
+      <c r="N9" s="216"/>
+      <c r="O9" s="216"/>
+      <c r="P9" s="216"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="216"/>
+      <c r="S9" s="216"/>
+      <c r="T9" s="216"/>
+      <c r="U9" s="216"/>
+      <c r="V9" s="216"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="221"/>
+      <c r="AG9" s="221"/>
+      <c r="AH9" s="221"/>
+      <c r="AI9" s="221"/>
+      <c r="AJ9" s="222"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+    </row>
+    <row r="10" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
+      <c r="B10" s="194" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="195" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="223"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="225"/>
+      <c r="P10" s="225"/>
+      <c r="Q10" s="225"/>
+      <c r="R10" s="225"/>
+      <c r="S10" s="225"/>
+      <c r="T10" s="225"/>
+      <c r="U10" s="225"/>
+      <c r="V10" s="225"/>
+      <c r="W10" s="225"/>
+      <c r="X10" s="225"/>
+      <c r="Y10" s="225"/>
+      <c r="Z10" s="225"/>
+      <c r="AA10" s="225"/>
+      <c r="AB10" s="225"/>
+      <c r="AC10" s="225"/>
+      <c r="AD10" s="225"/>
+      <c r="AE10" s="225"/>
+      <c r="AF10" s="225"/>
+      <c r="AG10" s="225"/>
+      <c r="AH10" s="225"/>
+      <c r="AI10" s="225"/>
+      <c r="AJ10" s="226"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+    </row>
+    <row r="11" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="79"/>
+      <c r="B11" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="195" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="227"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="225"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="225"/>
+      <c r="T11" s="225"/>
+      <c r="U11" s="225"/>
+      <c r="V11" s="225"/>
+      <c r="W11" s="225"/>
+      <c r="X11" s="225"/>
+      <c r="Y11" s="225"/>
+      <c r="Z11" s="225"/>
+      <c r="AA11" s="225"/>
+      <c r="AB11" s="225"/>
+      <c r="AC11" s="225"/>
+      <c r="AD11" s="225"/>
+      <c r="AE11" s="225"/>
+      <c r="AF11" s="225"/>
+      <c r="AG11" s="225"/>
+      <c r="AH11" s="225"/>
+      <c r="AI11" s="225"/>
+      <c r="AJ11" s="226"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+    </row>
+    <row r="12" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="196" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="227"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="225"/>
+      <c r="O12" s="225"/>
+      <c r="P12" s="225"/>
+      <c r="Q12" s="225"/>
+      <c r="R12" s="225"/>
+      <c r="S12" s="225"/>
+      <c r="T12" s="225"/>
+      <c r="U12" s="225"/>
+      <c r="V12" s="225"/>
+      <c r="W12" s="225"/>
+      <c r="X12" s="225"/>
+      <c r="Y12" s="225"/>
+      <c r="Z12" s="225"/>
+      <c r="AA12" s="225"/>
+      <c r="AB12" s="225"/>
+      <c r="AC12" s="225"/>
+      <c r="AD12" s="225"/>
+      <c r="AE12" s="225"/>
+      <c r="AF12" s="225"/>
+      <c r="AG12" s="225"/>
+      <c r="AH12" s="225"/>
+      <c r="AI12" s="225"/>
+      <c r="AJ12" s="226"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+    </row>
+    <row r="13" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="194" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="197" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="227"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="225"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="224"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="224"/>
+      <c r="R13" s="224"/>
+      <c r="S13" s="224"/>
+      <c r="T13" s="224"/>
+      <c r="U13" s="224"/>
+      <c r="V13" s="224"/>
+      <c r="W13" s="224"/>
+      <c r="X13" s="224"/>
+      <c r="Y13" s="224"/>
+      <c r="Z13" s="224"/>
+      <c r="AA13" s="228"/>
+      <c r="AB13" s="228"/>
+      <c r="AC13" s="228"/>
+      <c r="AD13" s="228"/>
+      <c r="AE13" s="228"/>
+      <c r="AF13" s="228"/>
+      <c r="AG13" s="225"/>
+      <c r="AH13" s="225"/>
+      <c r="AI13" s="225"/>
+      <c r="AJ13" s="226"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+    </row>
+    <row r="14" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
+      <c r="B14" s="194" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="197" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="227"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="225"/>
+      <c r="H14" s="225"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="225"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="224"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="224"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="224"/>
+      <c r="Y14" s="224"/>
+      <c r="Z14" s="224"/>
+      <c r="AA14" s="224"/>
+      <c r="AB14" s="224"/>
+      <c r="AC14" s="224"/>
+      <c r="AD14" s="224"/>
+      <c r="AE14" s="224"/>
+      <c r="AF14" s="224"/>
+      <c r="AG14" s="225"/>
+      <c r="AH14" s="225"/>
+      <c r="AI14" s="225"/>
+      <c r="AJ14" s="226"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+    </row>
+    <row r="15" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79"/>
+      <c r="B15" s="194" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="197" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="227"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="225"/>
+      <c r="N15" s="225"/>
+      <c r="O15" s="225"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="225"/>
+      <c r="R15" s="225"/>
+      <c r="S15" s="225"/>
+      <c r="T15" s="225"/>
+      <c r="U15" s="225"/>
+      <c r="V15" s="225"/>
+      <c r="W15" s="225"/>
+      <c r="X15" s="225"/>
+      <c r="Y15" s="225"/>
+      <c r="Z15" s="225"/>
+      <c r="AA15" s="225"/>
+      <c r="AB15" s="225"/>
+      <c r="AC15" s="229"/>
+      <c r="AD15" s="229"/>
+      <c r="AE15" s="229"/>
+      <c r="AF15" s="229"/>
+      <c r="AG15" s="224"/>
+      <c r="AH15" s="224"/>
+      <c r="AI15" s="224"/>
+      <c r="AJ15" s="230"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+    </row>
+    <row r="16" spans="1:39" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="79"/>
+      <c r="B16" s="198" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="199" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="231"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="232"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
+      <c r="N16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="232"/>
+      <c r="U16" s="232"/>
+      <c r="V16" s="232"/>
+      <c r="W16" s="232"/>
+      <c r="X16" s="232"/>
+      <c r="Y16" s="232"/>
+      <c r="Z16" s="232"/>
+      <c r="AA16" s="232"/>
+      <c r="AB16" s="232"/>
+      <c r="AC16" s="232"/>
+      <c r="AD16" s="232"/>
+      <c r="AE16" s="232"/>
+      <c r="AF16" s="232"/>
+      <c r="AG16" s="232"/>
+      <c r="AH16" s="232"/>
+      <c r="AI16" s="232"/>
+      <c r="AJ16" s="233"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="53" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Arial,Kalın"&amp;16&amp;K000000Very-Light Uçak (VLA) Geliştirilmesine Yönelik BARGE Projesi&amp;C&amp;"Arial,Kalın"&amp;16Ek-4 Proje Uygulama Takvimi (Detay)</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;12&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED86F80-1F6E-47F6-9349-CEB35E151C73}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AM16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="38" customWidth="1"/>
+    <col min="4" max="36" width="5.5703125" style="38" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="200"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="202" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="202" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="202" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="202" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="202" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="202" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="202" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="202" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2" s="202" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q2" s="202" t="s">
+        <v>266</v>
+      </c>
+      <c r="R2" s="202" t="s">
+        <v>267</v>
+      </c>
+      <c r="S2" s="202" t="s">
+        <v>268</v>
+      </c>
+      <c r="T2" s="202" t="s">
+        <v>269</v>
+      </c>
+      <c r="U2" s="202" t="s">
+        <v>270</v>
+      </c>
+      <c r="V2" s="202" t="s">
+        <v>274</v>
+      </c>
+      <c r="W2" s="202" t="s">
+        <v>275</v>
+      </c>
+      <c r="X2" s="202" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y2" s="202" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z2" s="202" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA2" s="202" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB2" s="202" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC2" s="202" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD2" s="202" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE2" s="203" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF2" s="202" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG2" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH2" s="202" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI2" s="202" t="s">
+        <v>287</v>
+      </c>
+      <c r="AJ2" s="202" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="200"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="205"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="205"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="204"/>
+      <c r="AJ3" s="204"/>
+    </row>
+    <row r="4" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="200"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="204"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
+      <c r="AC4" s="204"/>
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="204"/>
+      <c r="AG4" s="205"/>
+      <c r="AH4" s="204"/>
+      <c r="AI4" s="204"/>
+      <c r="AJ4" s="204"/>
+    </row>
+    <row r="5" spans="1:39" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="200"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="207"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="207"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+    </row>
+    <row r="6" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="79"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="210">
+        <v>1</v>
+      </c>
+      <c r="E6" s="210">
+        <v>2</v>
+      </c>
+      <c r="F6" s="210">
+        <v>3</v>
+      </c>
+      <c r="G6" s="210">
+        <v>4</v>
+      </c>
+      <c r="H6" s="210">
+        <v>5</v>
+      </c>
+      <c r="I6" s="210">
+        <v>6</v>
+      </c>
+      <c r="J6" s="210">
+        <v>7</v>
+      </c>
+      <c r="K6" s="210">
+        <v>8</v>
+      </c>
+      <c r="L6" s="210">
+        <v>9</v>
+      </c>
+      <c r="M6" s="210">
+        <v>10</v>
+      </c>
+      <c r="N6" s="210">
+        <v>11</v>
+      </c>
+      <c r="O6" s="210">
+        <v>12</v>
+      </c>
+      <c r="P6" s="210">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="210">
+        <v>14</v>
+      </c>
+      <c r="R6" s="211">
+        <v>15</v>
+      </c>
+      <c r="S6" s="210">
+        <v>16</v>
+      </c>
+      <c r="T6" s="210">
+        <v>17</v>
+      </c>
+      <c r="U6" s="210">
+        <v>18</v>
+      </c>
+      <c r="V6" s="210">
+        <v>19</v>
+      </c>
+      <c r="W6" s="210">
+        <v>20</v>
+      </c>
+      <c r="X6" s="210">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="210">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="210">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="210">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="210">
+        <v>25</v>
+      </c>
+      <c r="AC6" s="210">
+        <v>26</v>
+      </c>
+      <c r="AD6" s="210">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="210">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="211">
+        <v>29</v>
+      </c>
+      <c r="AG6" s="210">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="210">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="210">
+        <v>32</v>
+      </c>
+      <c r="AJ6" s="210">
+        <v>33</v>
+      </c>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="79"/>
+      <c r="AM6" s="79"/>
+    </row>
+    <row r="7" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="213" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="214"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="216"/>
+      <c r="W7" s="216"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="216"/>
+      <c r="Z7" s="216"/>
+      <c r="AA7" s="216"/>
+      <c r="AB7" s="216"/>
+      <c r="AC7" s="216"/>
+      <c r="AD7" s="216"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="216"/>
+      <c r="AG7" s="216"/>
+      <c r="AH7" s="216"/>
+      <c r="AI7" s="216"/>
+      <c r="AJ7" s="217"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+    </row>
+    <row r="8" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="220"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="216"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="221"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="216"/>
+      <c r="X8" s="216"/>
+      <c r="Y8" s="216"/>
+      <c r="Z8" s="216"/>
+      <c r="AA8" s="216"/>
+      <c r="AB8" s="216"/>
+      <c r="AC8" s="216"/>
+      <c r="AD8" s="216"/>
+      <c r="AE8" s="216"/>
+      <c r="AF8" s="216"/>
+      <c r="AG8" s="216"/>
+      <c r="AH8" s="216"/>
+      <c r="AI8" s="216"/>
+      <c r="AJ8" s="217"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="79"/>
+      <c r="AM8" s="79"/>
+    </row>
+    <row r="9" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="219" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="220"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="216"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="216"/>
+      <c r="N9" s="216"/>
+      <c r="O9" s="216"/>
+      <c r="P9" s="216"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="216"/>
+      <c r="S9" s="216"/>
+      <c r="T9" s="216"/>
+      <c r="U9" s="216"/>
+      <c r="V9" s="216"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="221"/>
+      <c r="AG9" s="221"/>
+      <c r="AH9" s="221"/>
+      <c r="AI9" s="221"/>
+      <c r="AJ9" s="222"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+    </row>
+    <row r="10" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
+      <c r="B10" s="194" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="195" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="234"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="225"/>
+      <c r="P10" s="225"/>
+      <c r="Q10" s="225"/>
+      <c r="R10" s="225"/>
+      <c r="S10" s="225"/>
+      <c r="T10" s="225"/>
+      <c r="U10" s="225"/>
+      <c r="V10" s="225"/>
+      <c r="W10" s="225"/>
+      <c r="X10" s="225"/>
+      <c r="Y10" s="225"/>
+      <c r="Z10" s="225"/>
+      <c r="AA10" s="225"/>
+      <c r="AB10" s="225"/>
+      <c r="AC10" s="225"/>
+      <c r="AD10" s="225"/>
+      <c r="AE10" s="225"/>
+      <c r="AF10" s="225"/>
+      <c r="AG10" s="225"/>
+      <c r="AH10" s="225"/>
+      <c r="AI10" s="225"/>
+      <c r="AJ10" s="226"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+    </row>
+    <row r="11" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="79"/>
+      <c r="B11" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="195" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="227"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="225"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="225"/>
+      <c r="T11" s="225"/>
+      <c r="U11" s="225"/>
+      <c r="V11" s="225"/>
+      <c r="W11" s="225"/>
+      <c r="X11" s="225"/>
+      <c r="Y11" s="225"/>
+      <c r="Z11" s="225"/>
+      <c r="AA11" s="225"/>
+      <c r="AB11" s="225"/>
+      <c r="AC11" s="225"/>
+      <c r="AD11" s="225"/>
+      <c r="AE11" s="225"/>
+      <c r="AF11" s="225"/>
+      <c r="AG11" s="225"/>
+      <c r="AH11" s="225"/>
+      <c r="AI11" s="225"/>
+      <c r="AJ11" s="226"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+    </row>
+    <row r="12" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="196" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="227"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="225"/>
+      <c r="O12" s="225"/>
+      <c r="P12" s="225"/>
+      <c r="Q12" s="225"/>
+      <c r="R12" s="225"/>
+      <c r="S12" s="225"/>
+      <c r="T12" s="225"/>
+      <c r="U12" s="225"/>
+      <c r="V12" s="225"/>
+      <c r="W12" s="225"/>
+      <c r="X12" s="225"/>
+      <c r="Y12" s="225"/>
+      <c r="Z12" s="225"/>
+      <c r="AA12" s="225"/>
+      <c r="AB12" s="225"/>
+      <c r="AC12" s="225"/>
+      <c r="AD12" s="225"/>
+      <c r="AE12" s="225"/>
+      <c r="AF12" s="225"/>
+      <c r="AG12" s="225"/>
+      <c r="AH12" s="225"/>
+      <c r="AI12" s="225"/>
+      <c r="AJ12" s="226"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+    </row>
+    <row r="13" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="194" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="197" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="227"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="225"/>
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="228"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="228"/>
+      <c r="P13" s="228"/>
+      <c r="Q13" s="228"/>
+      <c r="R13" s="228"/>
+      <c r="S13" s="228"/>
+      <c r="T13" s="228"/>
+      <c r="U13" s="228"/>
+      <c r="V13" s="228"/>
+      <c r="W13" s="228"/>
+      <c r="X13" s="228"/>
+      <c r="Y13" s="228"/>
+      <c r="Z13" s="228"/>
+      <c r="AA13" s="228"/>
+      <c r="AB13" s="228"/>
+      <c r="AC13" s="228"/>
+      <c r="AD13" s="228"/>
+      <c r="AE13" s="228"/>
+      <c r="AF13" s="228"/>
+      <c r="AG13" s="225"/>
+      <c r="AH13" s="225"/>
+      <c r="AI13" s="225"/>
+      <c r="AJ13" s="226"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+    </row>
+    <row r="14" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
+      <c r="B14" s="194" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="197" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="227"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="225"/>
+      <c r="H14" s="225"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="225"/>
+      <c r="M14" s="228"/>
+      <c r="N14" s="228"/>
+      <c r="O14" s="228"/>
+      <c r="P14" s="228"/>
+      <c r="Q14" s="228"/>
+      <c r="R14" s="228"/>
+      <c r="S14" s="228"/>
+      <c r="T14" s="228"/>
+      <c r="U14" s="228"/>
+      <c r="V14" s="228"/>
+      <c r="W14" s="228"/>
+      <c r="X14" s="228"/>
+      <c r="Y14" s="228"/>
+      <c r="Z14" s="228"/>
+      <c r="AA14" s="228"/>
+      <c r="AB14" s="228"/>
+      <c r="AC14" s="228"/>
+      <c r="AD14" s="228"/>
+      <c r="AE14" s="228"/>
+      <c r="AF14" s="228"/>
+      <c r="AG14" s="225"/>
+      <c r="AH14" s="225"/>
+      <c r="AI14" s="225"/>
+      <c r="AJ14" s="226"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+    </row>
+    <row r="15" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79"/>
+      <c r="B15" s="194" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="197" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="227"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="225"/>
+      <c r="N15" s="225"/>
+      <c r="O15" s="225"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="225"/>
+      <c r="R15" s="225"/>
+      <c r="S15" s="225"/>
+      <c r="T15" s="225"/>
+      <c r="U15" s="225"/>
+      <c r="V15" s="225"/>
+      <c r="W15" s="225"/>
+      <c r="X15" s="225"/>
+      <c r="Y15" s="225"/>
+      <c r="Z15" s="225"/>
+      <c r="AA15" s="225"/>
+      <c r="AB15" s="225"/>
+      <c r="AC15" s="225"/>
+      <c r="AD15" s="225"/>
+      <c r="AE15" s="225"/>
+      <c r="AF15" s="225"/>
+      <c r="AG15" s="228"/>
+      <c r="AH15" s="228"/>
+      <c r="AI15" s="228"/>
+      <c r="AJ15" s="235"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+    </row>
+    <row r="16" spans="1:39" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="79"/>
+      <c r="B16" s="198" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="199" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="231"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="232"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
+      <c r="N16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="232"/>
+      <c r="U16" s="232"/>
+      <c r="V16" s="232"/>
+      <c r="W16" s="232"/>
+      <c r="X16" s="232"/>
+      <c r="Y16" s="232"/>
+      <c r="Z16" s="232"/>
+      <c r="AA16" s="232"/>
+      <c r="AB16" s="232"/>
+      <c r="AC16" s="232"/>
+      <c r="AD16" s="232"/>
+      <c r="AE16" s="232"/>
+      <c r="AF16" s="232"/>
+      <c r="AG16" s="232"/>
+      <c r="AH16" s="232"/>
+      <c r="AI16" s="232"/>
+      <c r="AJ16" s="236"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="53" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Arial,Kalın"&amp;16&amp;K000000Very-Light Uçak (VLA) Geliştirilmesine Yönelik BARGE Projesi&amp;C&amp;"Arial,Kalın"&amp;16Ek-4 Proje Uygulama Takvimi (Detay)</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;12&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
@@ -19393,24 +21311,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="182" t="s">
+      <c r="D1" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="183"/>
+      <c r="E1" s="193"/>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="162"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="172"/>
       <c r="D2" s="14" t="s">
         <v>44</v>
       </c>
@@ -19419,9 +21337,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="20.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="163"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="16" t="s">
         <v>44</v>
       </c>

--- a/reports/conceptual_design_report/gantt_chart.xlsx
+++ b/reports/conceptual_design_report/gantt_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\reports\conceptual_design_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EBF858-C5B3-4F87-BA39-6223E270EF9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DD0ABB-1B7E-4E50-B871-4A8DE59B5EA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'PUT_Detay (3)'!$B$2:$AA$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'PUT_Detay (4)'!$B$6:$AF$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'PUT_Detay (5)'!$B$6:$AF$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'PUT_Detay (6)'!$B$6:$AF$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'PUT_Detay (6)'!$B$6:$AF$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="355">
   <si>
     <t>İP No</t>
   </si>
@@ -1055,12 +1055,6 @@
   </si>
   <si>
     <t>Driving System Testing</t>
-  </si>
-  <si>
-    <t>October 2018</t>
-  </si>
-  <si>
-    <t>November 2018</t>
   </si>
   <si>
     <t>Assessment of System 
@@ -1075,20 +1069,51 @@
 Phase </t>
   </si>
   <si>
-    <t>Tracking the Lane</t>
-  </si>
-  <si>
-    <t>Detecting the Lane</t>
-  </si>
-  <si>
-    <t>Detecting Opponent</t>
+    <t>Moving on a 
+Defined Path</t>
+  </si>
+  <si>
+    <t>Integrate Camera Vision to Vehicle</t>
+  </si>
+  <si>
+    <t>Detecting Lanes using Camera</t>
+  </si>
+  <si>
+    <t>Following the Path 
+with Camera Vision</t>
+  </si>
+  <si>
+    <t>Implementation of 
+Handshake in Software</t>
+  </si>
+  <si>
+    <t>Implementation of 
+Handshake in Hardware</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Realization of PID Parameters</t>
+  </si>
+  <si>
+    <t>Implementation of all systems</t>
+  </si>
+  <si>
+    <t>Testing of All Systems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,6 +1327,14 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE07187"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1353,7 +1386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1937,11 +1970,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2311,6 +2381,78 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2365,6 +2507,15 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -2374,13 +2525,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2398,97 +2558,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3749,25 +3834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="207" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="166"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="172"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="208"/>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="173"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="209"/>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
@@ -10739,10 +10824,10 @@
       <c r="C3" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
       <c r="J3" s="75"/>
@@ -10781,9 +10866,9 @@
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="76"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
@@ -10822,10 +10907,10 @@
       <c r="D5" s="91"/>
       <c r="E5" s="76"/>
       <c r="F5" s="76"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
       <c r="K5" s="76"/>
       <c r="L5" s="76"/>
       <c r="M5" s="76"/>
@@ -10865,24 +10950,24 @@
       <c r="G6" s="76"/>
       <c r="H6" s="76"/>
       <c r="I6" s="76"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="182"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="218"/>
+      <c r="U6" s="218"/>
+      <c r="V6" s="218"/>
+      <c r="W6" s="218"/>
+      <c r="X6" s="218"/>
+      <c r="Y6" s="218"/>
+      <c r="Z6" s="218"/>
+      <c r="AA6" s="218"/>
       <c r="AB6" s="76"/>
       <c r="AC6" s="76"/>
       <c r="AD6" s="76"/>
@@ -10908,21 +10993,21 @@
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
       <c r="L7" s="76"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
-      <c r="U7" s="178"/>
-      <c r="V7" s="178"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="178"/>
-      <c r="Y7" s="178"/>
-      <c r="Z7" s="178"/>
-      <c r="AA7" s="179"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="214"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="214"/>
+      <c r="S7" s="214"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="214"/>
+      <c r="W7" s="214"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="214"/>
+      <c r="Z7" s="214"/>
+      <c r="AA7" s="215"/>
       <c r="AB7" s="114"/>
       <c r="AC7" s="115"/>
       <c r="AD7" s="115"/>
@@ -10963,10 +11048,10 @@
       <c r="Y8" s="76"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="76"/>
-      <c r="AB8" s="174"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="176"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="211"/>
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="212"/>
       <c r="AF8" s="79"/>
       <c r="AG8" s="79"/>
       <c r="AH8" s="79"/>
@@ -14697,7 +14782,7 @@
   <dimension ref="A1:AP103"/>
   <sheetViews>
     <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ96" sqref="AC96:AJ96"/>
+      <selection activeCell="D72" sqref="D72:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14711,210 +14796,210 @@
   <sheetData>
     <row r="1" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="183" t="s">
+      <c r="D2" s="222" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="222" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="183" t="s">
+      <c r="F2" s="222" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="183" t="s">
+      <c r="G2" s="222" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="183" t="s">
+      <c r="H2" s="222" t="s">
         <v>257</v>
       </c>
-      <c r="I2" s="183" t="s">
+      <c r="I2" s="222" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="183" t="s">
+      <c r="J2" s="222" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="183" t="s">
+      <c r="K2" s="222" t="s">
         <v>260</v>
       </c>
-      <c r="L2" s="183" t="s">
+      <c r="L2" s="222" t="s">
         <v>261</v>
       </c>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="222" t="s">
         <v>262</v>
       </c>
-      <c r="N2" s="183" t="s">
+      <c r="N2" s="222" t="s">
         <v>263</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="222" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="183" t="s">
+      <c r="P2" s="222" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" s="183" t="s">
+      <c r="Q2" s="222" t="s">
         <v>266</v>
       </c>
-      <c r="R2" s="183" t="s">
+      <c r="R2" s="222" t="s">
         <v>267</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="222" t="s">
         <v>268</v>
       </c>
-      <c r="T2" s="183" t="s">
+      <c r="T2" s="222" t="s">
         <v>269</v>
       </c>
-      <c r="U2" s="183" t="s">
+      <c r="U2" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="V2" s="183" t="s">
+      <c r="V2" s="222" t="s">
         <v>274</v>
       </c>
-      <c r="W2" s="183" t="s">
+      <c r="W2" s="222" t="s">
         <v>275</v>
       </c>
-      <c r="X2" s="183" t="s">
+      <c r="X2" s="222" t="s">
         <v>276</v>
       </c>
-      <c r="Y2" s="183" t="s">
+      <c r="Y2" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="Z2" s="183" t="s">
+      <c r="Z2" s="222" t="s">
         <v>278</v>
       </c>
-      <c r="AA2" s="183" t="s">
+      <c r="AA2" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="AB2" s="183" t="s">
+      <c r="AB2" s="222" t="s">
         <v>280</v>
       </c>
-      <c r="AC2" s="183" t="s">
+      <c r="AC2" s="222" t="s">
         <v>281</v>
       </c>
-      <c r="AD2" s="183" t="s">
+      <c r="AD2" s="222" t="s">
         <v>282</v>
       </c>
-      <c r="AE2" s="186" t="s">
+      <c r="AE2" s="219" t="s">
         <v>283</v>
       </c>
-      <c r="AF2" s="183" t="s">
+      <c r="AF2" s="222" t="s">
         <v>284</v>
       </c>
-      <c r="AG2" s="186" t="s">
+      <c r="AG2" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="AH2" s="183" t="s">
+      <c r="AH2" s="222" t="s">
         <v>286</v>
       </c>
-      <c r="AI2" s="183" t="s">
+      <c r="AI2" s="222" t="s">
         <v>287</v>
       </c>
-      <c r="AJ2" s="183" t="s">
+      <c r="AJ2" s="222" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="184"/>
-      <c r="AG3" s="187"/>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="184"/>
-      <c r="AJ3" s="184"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="223"/>
+      <c r="AA3" s="223"/>
+      <c r="AB3" s="223"/>
+      <c r="AC3" s="223"/>
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="223"/>
+      <c r="AG3" s="220"/>
+      <c r="AH3" s="223"/>
+      <c r="AI3" s="223"/>
+      <c r="AJ3" s="223"/>
     </row>
     <row r="4" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="184"/>
-      <c r="U4" s="184"/>
-      <c r="V4" s="184"/>
-      <c r="W4" s="184"/>
-      <c r="X4" s="184"/>
-      <c r="Y4" s="184"/>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="184"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="187"/>
-      <c r="AF4" s="184"/>
-      <c r="AG4" s="187"/>
-      <c r="AH4" s="184"/>
-      <c r="AI4" s="184"/>
-      <c r="AJ4" s="184"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="223"/>
+      <c r="Q4" s="223"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
+      <c r="T4" s="223"/>
+      <c r="U4" s="223"/>
+      <c r="V4" s="223"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="223"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="223"/>
+      <c r="AA4" s="223"/>
+      <c r="AB4" s="223"/>
+      <c r="AC4" s="223"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="220"/>
+      <c r="AF4" s="223"/>
+      <c r="AG4" s="220"/>
+      <c r="AH4" s="223"/>
+      <c r="AI4" s="223"/>
+      <c r="AJ4" s="223"/>
     </row>
     <row r="5" spans="1:39" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="185"/>
-      <c r="Z5" s="185"/>
-      <c r="AA5" s="185"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="185"/>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="185"/>
-      <c r="AI5" s="185"/>
-      <c r="AJ5" s="185"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="224"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="224"/>
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="224"/>
+      <c r="U5" s="224"/>
+      <c r="V5" s="224"/>
+      <c r="W5" s="224"/>
+      <c r="X5" s="224"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="221"/>
+      <c r="AF5" s="224"/>
+      <c r="AG5" s="221"/>
+      <c r="AH5" s="224"/>
+      <c r="AI5" s="224"/>
+      <c r="AJ5" s="224"/>
     </row>
     <row r="6" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
@@ -16552,103 +16637,103 @@
     </row>
     <row r="41" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="79"/>
-      <c r="D41" s="183" t="s">
+      <c r="D41" s="222" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="183" t="s">
+      <c r="E41" s="222" t="s">
         <v>254</v>
       </c>
-      <c r="F41" s="183" t="s">
+      <c r="F41" s="222" t="s">
         <v>255</v>
       </c>
-      <c r="G41" s="183" t="s">
+      <c r="G41" s="222" t="s">
         <v>256</v>
       </c>
-      <c r="H41" s="183" t="s">
+      <c r="H41" s="222" t="s">
         <v>257</v>
       </c>
-      <c r="I41" s="183" t="s">
+      <c r="I41" s="222" t="s">
         <v>259</v>
       </c>
-      <c r="J41" s="183" t="s">
+      <c r="J41" s="222" t="s">
         <v>258</v>
       </c>
-      <c r="K41" s="183" t="s">
+      <c r="K41" s="222" t="s">
         <v>260</v>
       </c>
-      <c r="L41" s="183" t="s">
+      <c r="L41" s="222" t="s">
         <v>261</v>
       </c>
-      <c r="M41" s="183" t="s">
+      <c r="M41" s="222" t="s">
         <v>262</v>
       </c>
-      <c r="N41" s="183" t="s">
+      <c r="N41" s="222" t="s">
         <v>263</v>
       </c>
-      <c r="O41" s="183" t="s">
+      <c r="O41" s="222" t="s">
         <v>264</v>
       </c>
-      <c r="P41" s="183" t="s">
+      <c r="P41" s="222" t="s">
         <v>265</v>
       </c>
-      <c r="Q41" s="183" t="s">
+      <c r="Q41" s="222" t="s">
         <v>266</v>
       </c>
-      <c r="R41" s="183" t="s">
+      <c r="R41" s="222" t="s">
         <v>267</v>
       </c>
-      <c r="S41" s="183" t="s">
+      <c r="S41" s="222" t="s">
         <v>268</v>
       </c>
-      <c r="T41" s="183" t="s">
+      <c r="T41" s="222" t="s">
         <v>269</v>
       </c>
-      <c r="U41" s="183" t="s">
+      <c r="U41" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="V41" s="183" t="s">
+      <c r="V41" s="222" t="s">
         <v>274</v>
       </c>
-      <c r="W41" s="183" t="s">
+      <c r="W41" s="222" t="s">
         <v>275</v>
       </c>
-      <c r="X41" s="183" t="s">
+      <c r="X41" s="222" t="s">
         <v>276</v>
       </c>
-      <c r="Y41" s="183" t="s">
+      <c r="Y41" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="Z41" s="183" t="s">
+      <c r="Z41" s="222" t="s">
         <v>278</v>
       </c>
-      <c r="AA41" s="183" t="s">
+      <c r="AA41" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="AB41" s="183" t="s">
+      <c r="AB41" s="222" t="s">
         <v>280</v>
       </c>
-      <c r="AC41" s="183" t="s">
+      <c r="AC41" s="222" t="s">
         <v>281</v>
       </c>
-      <c r="AD41" s="183" t="s">
+      <c r="AD41" s="222" t="s">
         <v>282</v>
       </c>
-      <c r="AE41" s="186" t="s">
+      <c r="AE41" s="219" t="s">
         <v>283</v>
       </c>
-      <c r="AF41" s="183" t="s">
+      <c r="AF41" s="222" t="s">
         <v>284</v>
       </c>
-      <c r="AG41" s="186" t="s">
+      <c r="AG41" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="AH41" s="183" t="s">
+      <c r="AH41" s="222" t="s">
         <v>286</v>
       </c>
-      <c r="AI41" s="183" t="s">
+      <c r="AI41" s="222" t="s">
         <v>287</v>
       </c>
-      <c r="AJ41" s="183" t="s">
+      <c r="AJ41" s="222" t="s">
         <v>288</v>
       </c>
       <c r="AK41" s="79"/>
@@ -16657,117 +16742,117 @@
     </row>
     <row r="42" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="79"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="184"/>
-      <c r="L42" s="184"/>
-      <c r="M42" s="184"/>
-      <c r="N42" s="184"/>
-      <c r="O42" s="184"/>
-      <c r="P42" s="184"/>
-      <c r="Q42" s="184"/>
-      <c r="R42" s="184"/>
-      <c r="S42" s="184"/>
-      <c r="T42" s="184"/>
-      <c r="U42" s="184"/>
-      <c r="V42" s="184"/>
-      <c r="W42" s="184"/>
-      <c r="X42" s="184"/>
-      <c r="Y42" s="184"/>
-      <c r="Z42" s="184"/>
-      <c r="AA42" s="184"/>
-      <c r="AB42" s="184"/>
-      <c r="AC42" s="184"/>
-      <c r="AD42" s="184"/>
-      <c r="AE42" s="187"/>
-      <c r="AF42" s="184"/>
-      <c r="AG42" s="187"/>
-      <c r="AH42" s="184"/>
-      <c r="AI42" s="184"/>
-      <c r="AJ42" s="184"/>
+      <c r="D42" s="223"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="223"/>
+      <c r="G42" s="223"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="223"/>
+      <c r="K42" s="223"/>
+      <c r="L42" s="223"/>
+      <c r="M42" s="223"/>
+      <c r="N42" s="223"/>
+      <c r="O42" s="223"/>
+      <c r="P42" s="223"/>
+      <c r="Q42" s="223"/>
+      <c r="R42" s="223"/>
+      <c r="S42" s="223"/>
+      <c r="T42" s="223"/>
+      <c r="U42" s="223"/>
+      <c r="V42" s="223"/>
+      <c r="W42" s="223"/>
+      <c r="X42" s="223"/>
+      <c r="Y42" s="223"/>
+      <c r="Z42" s="223"/>
+      <c r="AA42" s="223"/>
+      <c r="AB42" s="223"/>
+      <c r="AC42" s="223"/>
+      <c r="AD42" s="223"/>
+      <c r="AE42" s="220"/>
+      <c r="AF42" s="223"/>
+      <c r="AG42" s="220"/>
+      <c r="AH42" s="223"/>
+      <c r="AI42" s="223"/>
+      <c r="AJ42" s="223"/>
       <c r="AK42" s="79"/>
       <c r="AL42" s="79"/>
       <c r="AM42" s="79"/>
     </row>
     <row r="43" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="79"/>
-      <c r="D43" s="184"/>
-      <c r="E43" s="184"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="184"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="184"/>
-      <c r="K43" s="184"/>
-      <c r="L43" s="184"/>
-      <c r="M43" s="184"/>
-      <c r="N43" s="184"/>
-      <c r="O43" s="184"/>
-      <c r="P43" s="184"/>
-      <c r="Q43" s="184"/>
-      <c r="R43" s="184"/>
-      <c r="S43" s="184"/>
-      <c r="T43" s="184"/>
-      <c r="U43" s="184"/>
-      <c r="V43" s="184"/>
-      <c r="W43" s="184"/>
-      <c r="X43" s="184"/>
-      <c r="Y43" s="184"/>
-      <c r="Z43" s="184"/>
-      <c r="AA43" s="184"/>
-      <c r="AB43" s="184"/>
-      <c r="AC43" s="184"/>
-      <c r="AD43" s="184"/>
-      <c r="AE43" s="187"/>
-      <c r="AF43" s="184"/>
-      <c r="AG43" s="187"/>
-      <c r="AH43" s="184"/>
-      <c r="AI43" s="184"/>
-      <c r="AJ43" s="184"/>
+      <c r="D43" s="223"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="223"/>
+      <c r="G43" s="223"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="223"/>
+      <c r="J43" s="223"/>
+      <c r="K43" s="223"/>
+      <c r="L43" s="223"/>
+      <c r="M43" s="223"/>
+      <c r="N43" s="223"/>
+      <c r="O43" s="223"/>
+      <c r="P43" s="223"/>
+      <c r="Q43" s="223"/>
+      <c r="R43" s="223"/>
+      <c r="S43" s="223"/>
+      <c r="T43" s="223"/>
+      <c r="U43" s="223"/>
+      <c r="V43" s="223"/>
+      <c r="W43" s="223"/>
+      <c r="X43" s="223"/>
+      <c r="Y43" s="223"/>
+      <c r="Z43" s="223"/>
+      <c r="AA43" s="223"/>
+      <c r="AB43" s="223"/>
+      <c r="AC43" s="223"/>
+      <c r="AD43" s="223"/>
+      <c r="AE43" s="220"/>
+      <c r="AF43" s="223"/>
+      <c r="AG43" s="220"/>
+      <c r="AH43" s="223"/>
+      <c r="AI43" s="223"/>
+      <c r="AJ43" s="223"/>
       <c r="AK43" s="79"/>
       <c r="AL43" s="79"/>
       <c r="AM43" s="79"/>
     </row>
     <row r="44" spans="1:39" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="79"/>
-      <c r="D44" s="185"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="185"/>
-      <c r="M44" s="185"/>
-      <c r="N44" s="185"/>
-      <c r="O44" s="185"/>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="185"/>
-      <c r="R44" s="185"/>
-      <c r="S44" s="185"/>
-      <c r="T44" s="185"/>
-      <c r="U44" s="185"/>
-      <c r="V44" s="185"/>
-      <c r="W44" s="185"/>
-      <c r="X44" s="185"/>
-      <c r="Y44" s="185"/>
-      <c r="Z44" s="185"/>
-      <c r="AA44" s="185"/>
-      <c r="AB44" s="185"/>
-      <c r="AC44" s="185"/>
-      <c r="AD44" s="185"/>
-      <c r="AE44" s="188"/>
-      <c r="AF44" s="185"/>
-      <c r="AG44" s="188"/>
-      <c r="AH44" s="185"/>
-      <c r="AI44" s="185"/>
-      <c r="AJ44" s="185"/>
+      <c r="D44" s="224"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="224"/>
+      <c r="G44" s="224"/>
+      <c r="H44" s="224"/>
+      <c r="I44" s="224"/>
+      <c r="J44" s="224"/>
+      <c r="K44" s="224"/>
+      <c r="L44" s="224"/>
+      <c r="M44" s="224"/>
+      <c r="N44" s="224"/>
+      <c r="O44" s="224"/>
+      <c r="P44" s="224"/>
+      <c r="Q44" s="224"/>
+      <c r="R44" s="224"/>
+      <c r="S44" s="224"/>
+      <c r="T44" s="224"/>
+      <c r="U44" s="224"/>
+      <c r="V44" s="224"/>
+      <c r="W44" s="224"/>
+      <c r="X44" s="224"/>
+      <c r="Y44" s="224"/>
+      <c r="Z44" s="224"/>
+      <c r="AA44" s="224"/>
+      <c r="AB44" s="224"/>
+      <c r="AC44" s="224"/>
+      <c r="AD44" s="224"/>
+      <c r="AE44" s="221"/>
+      <c r="AF44" s="224"/>
+      <c r="AG44" s="221"/>
+      <c r="AH44" s="224"/>
+      <c r="AI44" s="224"/>
+      <c r="AJ44" s="224"/>
       <c r="AK44" s="79"/>
       <c r="AL44" s="79"/>
       <c r="AM44" s="79"/>
@@ -18055,103 +18140,103 @@
     </row>
     <row r="72" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="79"/>
-      <c r="D72" s="183" t="s">
+      <c r="D72" s="222" t="s">
         <v>253</v>
       </c>
-      <c r="E72" s="183" t="s">
+      <c r="E72" s="222" t="s">
         <v>254</v>
       </c>
-      <c r="F72" s="183" t="s">
+      <c r="F72" s="222" t="s">
         <v>255</v>
       </c>
-      <c r="G72" s="183" t="s">
+      <c r="G72" s="222" t="s">
         <v>256</v>
       </c>
-      <c r="H72" s="183" t="s">
+      <c r="H72" s="222" t="s">
         <v>257</v>
       </c>
-      <c r="I72" s="183" t="s">
+      <c r="I72" s="222" t="s">
         <v>259</v>
       </c>
-      <c r="J72" s="183" t="s">
+      <c r="J72" s="222" t="s">
         <v>258</v>
       </c>
-      <c r="K72" s="183" t="s">
+      <c r="K72" s="222" t="s">
         <v>260</v>
       </c>
-      <c r="L72" s="183" t="s">
+      <c r="L72" s="222" t="s">
         <v>261</v>
       </c>
-      <c r="M72" s="183" t="s">
+      <c r="M72" s="222" t="s">
         <v>262</v>
       </c>
-      <c r="N72" s="183" t="s">
+      <c r="N72" s="222" t="s">
         <v>263</v>
       </c>
-      <c r="O72" s="183" t="s">
+      <c r="O72" s="222" t="s">
         <v>264</v>
       </c>
-      <c r="P72" s="183" t="s">
+      <c r="P72" s="222" t="s">
         <v>265</v>
       </c>
-      <c r="Q72" s="183" t="s">
+      <c r="Q72" s="222" t="s">
         <v>266</v>
       </c>
-      <c r="R72" s="183" t="s">
+      <c r="R72" s="222" t="s">
         <v>267</v>
       </c>
-      <c r="S72" s="183" t="s">
+      <c r="S72" s="222" t="s">
         <v>268</v>
       </c>
-      <c r="T72" s="183" t="s">
+      <c r="T72" s="222" t="s">
         <v>269</v>
       </c>
-      <c r="U72" s="183" t="s">
+      <c r="U72" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="V72" s="183" t="s">
+      <c r="V72" s="222" t="s">
         <v>274</v>
       </c>
-      <c r="W72" s="183" t="s">
+      <c r="W72" s="222" t="s">
         <v>275</v>
       </c>
-      <c r="X72" s="183" t="s">
+      <c r="X72" s="222" t="s">
         <v>276</v>
       </c>
-      <c r="Y72" s="183" t="s">
+      <c r="Y72" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="Z72" s="183" t="s">
+      <c r="Z72" s="222" t="s">
         <v>278</v>
       </c>
-      <c r="AA72" s="183" t="s">
+      <c r="AA72" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="AB72" s="183" t="s">
+      <c r="AB72" s="222" t="s">
         <v>280</v>
       </c>
-      <c r="AC72" s="183" t="s">
+      <c r="AC72" s="222" t="s">
         <v>281</v>
       </c>
-      <c r="AD72" s="183" t="s">
+      <c r="AD72" s="222" t="s">
         <v>282</v>
       </c>
-      <c r="AE72" s="186" t="s">
+      <c r="AE72" s="219" t="s">
         <v>283</v>
       </c>
-      <c r="AF72" s="183" t="s">
+      <c r="AF72" s="222" t="s">
         <v>284</v>
       </c>
-      <c r="AG72" s="186" t="s">
+      <c r="AG72" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="AH72" s="183" t="s">
+      <c r="AH72" s="222" t="s">
         <v>286</v>
       </c>
-      <c r="AI72" s="183" t="s">
+      <c r="AI72" s="222" t="s">
         <v>287</v>
       </c>
-      <c r="AJ72" s="183" t="s">
+      <c r="AJ72" s="222" t="s">
         <v>288</v>
       </c>
       <c r="AK72" s="79"/>
@@ -18160,117 +18245,117 @@
     </row>
     <row r="73" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="79"/>
-      <c r="D73" s="184"/>
-      <c r="E73" s="184"/>
-      <c r="F73" s="184"/>
-      <c r="G73" s="184"/>
-      <c r="H73" s="184"/>
-      <c r="I73" s="184"/>
-      <c r="J73" s="184"/>
-      <c r="K73" s="184"/>
-      <c r="L73" s="184"/>
-      <c r="M73" s="184"/>
-      <c r="N73" s="184"/>
-      <c r="O73" s="184"/>
-      <c r="P73" s="184"/>
-      <c r="Q73" s="184"/>
-      <c r="R73" s="184"/>
-      <c r="S73" s="184"/>
-      <c r="T73" s="184"/>
-      <c r="U73" s="184"/>
-      <c r="V73" s="184"/>
-      <c r="W73" s="184"/>
-      <c r="X73" s="184"/>
-      <c r="Y73" s="184"/>
-      <c r="Z73" s="184"/>
-      <c r="AA73" s="184"/>
-      <c r="AB73" s="184"/>
-      <c r="AC73" s="184"/>
-      <c r="AD73" s="184"/>
-      <c r="AE73" s="187"/>
-      <c r="AF73" s="184"/>
-      <c r="AG73" s="187"/>
-      <c r="AH73" s="184"/>
-      <c r="AI73" s="184"/>
-      <c r="AJ73" s="184"/>
+      <c r="D73" s="223"/>
+      <c r="E73" s="223"/>
+      <c r="F73" s="223"/>
+      <c r="G73" s="223"/>
+      <c r="H73" s="223"/>
+      <c r="I73" s="223"/>
+      <c r="J73" s="223"/>
+      <c r="K73" s="223"/>
+      <c r="L73" s="223"/>
+      <c r="M73" s="223"/>
+      <c r="N73" s="223"/>
+      <c r="O73" s="223"/>
+      <c r="P73" s="223"/>
+      <c r="Q73" s="223"/>
+      <c r="R73" s="223"/>
+      <c r="S73" s="223"/>
+      <c r="T73" s="223"/>
+      <c r="U73" s="223"/>
+      <c r="V73" s="223"/>
+      <c r="W73" s="223"/>
+      <c r="X73" s="223"/>
+      <c r="Y73" s="223"/>
+      <c r="Z73" s="223"/>
+      <c r="AA73" s="223"/>
+      <c r="AB73" s="223"/>
+      <c r="AC73" s="223"/>
+      <c r="AD73" s="223"/>
+      <c r="AE73" s="220"/>
+      <c r="AF73" s="223"/>
+      <c r="AG73" s="220"/>
+      <c r="AH73" s="223"/>
+      <c r="AI73" s="223"/>
+      <c r="AJ73" s="223"/>
       <c r="AK73" s="79"/>
       <c r="AL73" s="79"/>
       <c r="AM73" s="79"/>
     </row>
     <row r="74" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79"/>
-      <c r="D74" s="184"/>
-      <c r="E74" s="184"/>
-      <c r="F74" s="184"/>
-      <c r="G74" s="184"/>
-      <c r="H74" s="184"/>
-      <c r="I74" s="184"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="184"/>
-      <c r="L74" s="184"/>
-      <c r="M74" s="184"/>
-      <c r="N74" s="184"/>
-      <c r="O74" s="184"/>
-      <c r="P74" s="184"/>
-      <c r="Q74" s="184"/>
-      <c r="R74" s="184"/>
-      <c r="S74" s="184"/>
-      <c r="T74" s="184"/>
-      <c r="U74" s="184"/>
-      <c r="V74" s="184"/>
-      <c r="W74" s="184"/>
-      <c r="X74" s="184"/>
-      <c r="Y74" s="184"/>
-      <c r="Z74" s="184"/>
-      <c r="AA74" s="184"/>
-      <c r="AB74" s="184"/>
-      <c r="AC74" s="184"/>
-      <c r="AD74" s="184"/>
-      <c r="AE74" s="187"/>
-      <c r="AF74" s="184"/>
-      <c r="AG74" s="187"/>
-      <c r="AH74" s="184"/>
-      <c r="AI74" s="184"/>
-      <c r="AJ74" s="184"/>
+      <c r="D74" s="223"/>
+      <c r="E74" s="223"/>
+      <c r="F74" s="223"/>
+      <c r="G74" s="223"/>
+      <c r="H74" s="223"/>
+      <c r="I74" s="223"/>
+      <c r="J74" s="223"/>
+      <c r="K74" s="223"/>
+      <c r="L74" s="223"/>
+      <c r="M74" s="223"/>
+      <c r="N74" s="223"/>
+      <c r="O74" s="223"/>
+      <c r="P74" s="223"/>
+      <c r="Q74" s="223"/>
+      <c r="R74" s="223"/>
+      <c r="S74" s="223"/>
+      <c r="T74" s="223"/>
+      <c r="U74" s="223"/>
+      <c r="V74" s="223"/>
+      <c r="W74" s="223"/>
+      <c r="X74" s="223"/>
+      <c r="Y74" s="223"/>
+      <c r="Z74" s="223"/>
+      <c r="AA74" s="223"/>
+      <c r="AB74" s="223"/>
+      <c r="AC74" s="223"/>
+      <c r="AD74" s="223"/>
+      <c r="AE74" s="220"/>
+      <c r="AF74" s="223"/>
+      <c r="AG74" s="220"/>
+      <c r="AH74" s="223"/>
+      <c r="AI74" s="223"/>
+      <c r="AJ74" s="223"/>
       <c r="AK74" s="79"/>
       <c r="AL74" s="79"/>
       <c r="AM74" s="79"/>
     </row>
     <row r="75" spans="1:39" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="79"/>
-      <c r="D75" s="185"/>
-      <c r="E75" s="185"/>
-      <c r="F75" s="185"/>
-      <c r="G75" s="185"/>
-      <c r="H75" s="185"/>
-      <c r="I75" s="185"/>
-      <c r="J75" s="185"/>
-      <c r="K75" s="185"/>
-      <c r="L75" s="185"/>
-      <c r="M75" s="185"/>
-      <c r="N75" s="185"/>
-      <c r="O75" s="185"/>
-      <c r="P75" s="185"/>
-      <c r="Q75" s="185"/>
-      <c r="R75" s="185"/>
-      <c r="S75" s="185"/>
-      <c r="T75" s="185"/>
-      <c r="U75" s="185"/>
-      <c r="V75" s="185"/>
-      <c r="W75" s="185"/>
-      <c r="X75" s="185"/>
-      <c r="Y75" s="185"/>
-      <c r="Z75" s="185"/>
-      <c r="AA75" s="185"/>
-      <c r="AB75" s="185"/>
-      <c r="AC75" s="185"/>
-      <c r="AD75" s="185"/>
-      <c r="AE75" s="188"/>
-      <c r="AF75" s="185"/>
-      <c r="AG75" s="188"/>
-      <c r="AH75" s="185"/>
-      <c r="AI75" s="185"/>
-      <c r="AJ75" s="185"/>
+      <c r="D75" s="224"/>
+      <c r="E75" s="224"/>
+      <c r="F75" s="224"/>
+      <c r="G75" s="224"/>
+      <c r="H75" s="224"/>
+      <c r="I75" s="224"/>
+      <c r="J75" s="224"/>
+      <c r="K75" s="224"/>
+      <c r="L75" s="224"/>
+      <c r="M75" s="224"/>
+      <c r="N75" s="224"/>
+      <c r="O75" s="224"/>
+      <c r="P75" s="224"/>
+      <c r="Q75" s="224"/>
+      <c r="R75" s="224"/>
+      <c r="S75" s="224"/>
+      <c r="T75" s="224"/>
+      <c r="U75" s="224"/>
+      <c r="V75" s="224"/>
+      <c r="W75" s="224"/>
+      <c r="X75" s="224"/>
+      <c r="Y75" s="224"/>
+      <c r="Z75" s="224"/>
+      <c r="AA75" s="224"/>
+      <c r="AB75" s="224"/>
+      <c r="AC75" s="224"/>
+      <c r="AD75" s="224"/>
+      <c r="AE75" s="221"/>
+      <c r="AF75" s="224"/>
+      <c r="AG75" s="221"/>
+      <c r="AH75" s="224"/>
+      <c r="AI75" s="224"/>
+      <c r="AJ75" s="224"/>
       <c r="AK75" s="79"/>
       <c r="AL75" s="79"/>
       <c r="AM75" s="79"/>
@@ -19512,30 +19597,65 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="AG41:AG44"/>
-    <mergeCell ref="AH41:AH44"/>
-    <mergeCell ref="AI41:AI44"/>
-    <mergeCell ref="AJ41:AJ44"/>
-    <mergeCell ref="AB41:AB44"/>
-    <mergeCell ref="AC41:AC44"/>
-    <mergeCell ref="AD41:AD44"/>
-    <mergeCell ref="AE41:AE44"/>
-    <mergeCell ref="AF41:AF44"/>
-    <mergeCell ref="W41:W44"/>
-    <mergeCell ref="X41:X44"/>
-    <mergeCell ref="Y41:Y44"/>
-    <mergeCell ref="Z41:Z44"/>
-    <mergeCell ref="AA41:AA44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="AH72:AH75"/>
+    <mergeCell ref="AI72:AI75"/>
+    <mergeCell ref="AJ72:AJ75"/>
+    <mergeCell ref="AC72:AC75"/>
+    <mergeCell ref="AD72:AD75"/>
+    <mergeCell ref="AE72:AE75"/>
+    <mergeCell ref="AF72:AF75"/>
+    <mergeCell ref="AG72:AG75"/>
+    <mergeCell ref="X72:X75"/>
+    <mergeCell ref="Y72:Y75"/>
+    <mergeCell ref="Z72:Z75"/>
+    <mergeCell ref="AA72:AA75"/>
+    <mergeCell ref="AB72:AB75"/>
+    <mergeCell ref="S72:S75"/>
+    <mergeCell ref="T72:T75"/>
+    <mergeCell ref="U72:U75"/>
+    <mergeCell ref="V72:V75"/>
+    <mergeCell ref="W72:W75"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="O72:O75"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="Q72:Q75"/>
+    <mergeCell ref="R72:R75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="M72:M75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="AB2:AB5"/>
     <mergeCell ref="N41:N44"/>
     <mergeCell ref="O41:O44"/>
     <mergeCell ref="P41:P44"/>
@@ -19552,65 +19672,30 @@
     <mergeCell ref="T41:T44"/>
     <mergeCell ref="U41:U44"/>
     <mergeCell ref="V41:V44"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AD2:AD5"/>
-    <mergeCell ref="AE2:AE5"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="M72:M75"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="Q72:Q75"/>
-    <mergeCell ref="R72:R75"/>
-    <mergeCell ref="S72:S75"/>
-    <mergeCell ref="T72:T75"/>
-    <mergeCell ref="U72:U75"/>
-    <mergeCell ref="V72:V75"/>
-    <mergeCell ref="W72:W75"/>
-    <mergeCell ref="X72:X75"/>
-    <mergeCell ref="Y72:Y75"/>
-    <mergeCell ref="Z72:Z75"/>
-    <mergeCell ref="AA72:AA75"/>
-    <mergeCell ref="AB72:AB75"/>
-    <mergeCell ref="AH72:AH75"/>
-    <mergeCell ref="AI72:AI75"/>
-    <mergeCell ref="AJ72:AJ75"/>
-    <mergeCell ref="AC72:AC75"/>
-    <mergeCell ref="AD72:AD75"/>
-    <mergeCell ref="AE72:AE75"/>
-    <mergeCell ref="AF72:AF75"/>
-    <mergeCell ref="AG72:AG75"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="W41:W44"/>
+    <mergeCell ref="X41:X44"/>
+    <mergeCell ref="Y41:Y44"/>
+    <mergeCell ref="Z41:Z44"/>
+    <mergeCell ref="AA41:AA44"/>
+    <mergeCell ref="AG41:AG44"/>
+    <mergeCell ref="AH41:AH44"/>
+    <mergeCell ref="AI41:AI44"/>
+    <mergeCell ref="AJ41:AJ44"/>
+    <mergeCell ref="AB41:AB44"/>
+    <mergeCell ref="AC41:AC44"/>
+    <mergeCell ref="AD41:AD44"/>
+    <mergeCell ref="AE41:AE44"/>
+    <mergeCell ref="AF41:AF44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
@@ -19630,7 +19715,7 @@
   <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+      <selection activeCell="D2" sqref="D2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19644,322 +19729,322 @@
   <sheetData>
     <row r="1" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="200"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="202" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="202" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="222" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="222" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="222" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="202" t="s">
+      <c r="G2" s="222" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="202" t="s">
+      <c r="H2" s="222" t="s">
         <v>257</v>
       </c>
-      <c r="I2" s="202" t="s">
+      <c r="I2" s="222" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="202" t="s">
+      <c r="J2" s="225" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="202" t="s">
+      <c r="K2" s="225" t="s">
         <v>260</v>
       </c>
-      <c r="L2" s="202" t="s">
+      <c r="L2" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="M2" s="202" t="s">
+      <c r="M2" s="225" t="s">
         <v>262</v>
       </c>
-      <c r="N2" s="202" t="s">
+      <c r="N2" s="225" t="s">
         <v>263</v>
       </c>
-      <c r="O2" s="202" t="s">
+      <c r="O2" s="225" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="202" t="s">
+      <c r="P2" s="225" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" s="202" t="s">
+      <c r="Q2" s="225" t="s">
         <v>266</v>
       </c>
-      <c r="R2" s="202" t="s">
+      <c r="R2" s="225" t="s">
         <v>267</v>
       </c>
-      <c r="S2" s="202" t="s">
+      <c r="S2" s="225" t="s">
         <v>268</v>
       </c>
-      <c r="T2" s="202" t="s">
+      <c r="T2" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="U2" s="202" t="s">
+      <c r="U2" s="225" t="s">
         <v>270</v>
       </c>
-      <c r="V2" s="202" t="s">
+      <c r="V2" s="225" t="s">
         <v>274</v>
       </c>
-      <c r="W2" s="202" t="s">
+      <c r="W2" s="225" t="s">
         <v>275</v>
       </c>
-      <c r="X2" s="202" t="s">
+      <c r="X2" s="225" t="s">
         <v>276</v>
       </c>
-      <c r="Y2" s="202" t="s">
+      <c r="Y2" s="225" t="s">
         <v>277</v>
       </c>
-      <c r="Z2" s="202" t="s">
+      <c r="Z2" s="225" t="s">
         <v>278</v>
       </c>
-      <c r="AA2" s="202" t="s">
+      <c r="AA2" s="225" t="s">
         <v>279</v>
       </c>
-      <c r="AB2" s="202" t="s">
+      <c r="AB2" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="AC2" s="202" t="s">
+      <c r="AC2" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="AD2" s="202" t="s">
+      <c r="AD2" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="AE2" s="203" t="s">
+      <c r="AE2" s="228" t="s">
         <v>283</v>
       </c>
-      <c r="AF2" s="202" t="s">
+      <c r="AF2" s="225" t="s">
         <v>284</v>
       </c>
-      <c r="AG2" s="203" t="s">
+      <c r="AG2" s="228" t="s">
         <v>285</v>
       </c>
-      <c r="AH2" s="202" t="s">
+      <c r="AH2" s="225" t="s">
         <v>286</v>
       </c>
-      <c r="AI2" s="202" t="s">
+      <c r="AI2" s="225" t="s">
         <v>287</v>
       </c>
-      <c r="AJ2" s="202" t="s">
+      <c r="AJ2" s="225" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="200"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="205"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="204"/>
-      <c r="AJ3" s="204"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="226"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="226"/>
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
     </row>
     <row r="4" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="204"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="204"/>
-      <c r="V4" s="204"/>
-      <c r="W4" s="204"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="204"/>
-      <c r="AA4" s="204"/>
-      <c r="AB4" s="204"/>
-      <c r="AC4" s="204"/>
-      <c r="AD4" s="204"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="204"/>
-      <c r="AG4" s="205"/>
-      <c r="AH4" s="204"/>
-      <c r="AI4" s="204"/>
-      <c r="AJ4" s="204"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="226"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="226"/>
+      <c r="AB4" s="226"/>
+      <c r="AC4" s="226"/>
+      <c r="AD4" s="226"/>
+      <c r="AE4" s="229"/>
+      <c r="AF4" s="226"/>
+      <c r="AG4" s="229"/>
+      <c r="AH4" s="226"/>
+      <c r="AI4" s="226"/>
+      <c r="AJ4" s="226"/>
     </row>
     <row r="5" spans="1:39" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="200"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="206"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="207"/>
-      <c r="AF5" s="206"/>
-      <c r="AG5" s="207"/>
-      <c r="AH5" s="206"/>
-      <c r="AI5" s="206"/>
-      <c r="AJ5" s="206"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="227"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="227"/>
+      <c r="Q5" s="227"/>
+      <c r="R5" s="227"/>
+      <c r="S5" s="227"/>
+      <c r="T5" s="227"/>
+      <c r="U5" s="227"/>
+      <c r="V5" s="227"/>
+      <c r="W5" s="227"/>
+      <c r="X5" s="227"/>
+      <c r="Y5" s="227"/>
+      <c r="Z5" s="227"/>
+      <c r="AA5" s="227"/>
+      <c r="AB5" s="227"/>
+      <c r="AC5" s="227"/>
+      <c r="AD5" s="227"/>
+      <c r="AE5" s="230"/>
+      <c r="AF5" s="227"/>
+      <c r="AG5" s="230"/>
+      <c r="AH5" s="227"/>
+      <c r="AI5" s="227"/>
+      <c r="AJ5" s="227"/>
     </row>
     <row r="6" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="79"/>
-      <c r="B6" s="208"/>
-      <c r="C6" s="209" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="174" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="210">
+      <c r="D6" s="175">
         <v>1</v>
       </c>
-      <c r="E6" s="210">
+      <c r="E6" s="175">
         <v>2</v>
       </c>
-      <c r="F6" s="210">
+      <c r="F6" s="175">
         <v>3</v>
       </c>
-      <c r="G6" s="210">
+      <c r="G6" s="175">
         <v>4</v>
       </c>
-      <c r="H6" s="210">
+      <c r="H6" s="175">
         <v>5</v>
       </c>
-      <c r="I6" s="210">
+      <c r="I6" s="175">
         <v>6</v>
       </c>
-      <c r="J6" s="210">
+      <c r="J6" s="175">
         <v>7</v>
       </c>
-      <c r="K6" s="210">
+      <c r="K6" s="175">
         <v>8</v>
       </c>
-      <c r="L6" s="210">
+      <c r="L6" s="175">
         <v>9</v>
       </c>
-      <c r="M6" s="210">
+      <c r="M6" s="175">
         <v>10</v>
       </c>
-      <c r="N6" s="210">
+      <c r="N6" s="175">
         <v>11</v>
       </c>
-      <c r="O6" s="210">
+      <c r="O6" s="175">
         <v>12</v>
       </c>
-      <c r="P6" s="210">
+      <c r="P6" s="175">
         <v>13</v>
       </c>
-      <c r="Q6" s="210">
+      <c r="Q6" s="175">
         <v>14</v>
       </c>
-      <c r="R6" s="211">
+      <c r="R6" s="176">
         <v>15</v>
       </c>
-      <c r="S6" s="210">
+      <c r="S6" s="175">
         <v>16</v>
       </c>
-      <c r="T6" s="210">
+      <c r="T6" s="175">
         <v>17</v>
       </c>
-      <c r="U6" s="210">
+      <c r="U6" s="175">
         <v>18</v>
       </c>
-      <c r="V6" s="210">
+      <c r="V6" s="175">
         <v>19</v>
       </c>
-      <c r="W6" s="210">
+      <c r="W6" s="175">
         <v>20</v>
       </c>
-      <c r="X6" s="210">
+      <c r="X6" s="175">
         <v>21</v>
       </c>
-      <c r="Y6" s="210">
+      <c r="Y6" s="175">
         <v>22</v>
       </c>
-      <c r="Z6" s="210">
+      <c r="Z6" s="175">
         <v>23</v>
       </c>
-      <c r="AA6" s="210">
+      <c r="AA6" s="175">
         <v>24</v>
       </c>
-      <c r="AB6" s="210">
+      <c r="AB6" s="175">
         <v>25</v>
       </c>
-      <c r="AC6" s="210">
+      <c r="AC6" s="175">
         <v>26</v>
       </c>
-      <c r="AD6" s="210">
+      <c r="AD6" s="175">
         <v>27</v>
       </c>
-      <c r="AE6" s="210">
+      <c r="AE6" s="175">
         <v>28</v>
       </c>
-      <c r="AF6" s="211">
+      <c r="AF6" s="176">
         <v>29</v>
       </c>
-      <c r="AG6" s="210">
+      <c r="AG6" s="175">
         <v>30</v>
       </c>
-      <c r="AH6" s="210">
+      <c r="AH6" s="175">
         <v>31</v>
       </c>
-      <c r="AI6" s="210">
+      <c r="AI6" s="175">
         <v>32</v>
       </c>
-      <c r="AJ6" s="210">
+      <c r="AJ6" s="175">
         <v>33</v>
       </c>
       <c r="AK6" s="79"/>
@@ -19968,452 +20053,476 @@
     </row>
     <row r="7" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
-      <c r="B7" s="212"/>
-      <c r="C7" s="213" t="s">
+      <c r="B7" s="177"/>
+      <c r="C7" s="178" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="214"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="216"/>
-      <c r="Z7" s="216"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="216"/>
-      <c r="AF7" s="216"/>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="216"/>
-      <c r="AJ7" s="217"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="181"/>
+      <c r="AF7" s="181"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="181"/>
+      <c r="AJ7" s="182"/>
       <c r="AK7" s="79"/>
       <c r="AL7" s="79"/>
       <c r="AM7" s="79"/>
     </row>
     <row r="8" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
-      <c r="B8" s="218"/>
-      <c r="C8" s="219" t="s">
+      <c r="B8" s="183"/>
+      <c r="C8" s="184" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="220"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="216"/>
-      <c r="N8" s="216"/>
-      <c r="O8" s="216"/>
-      <c r="P8" s="216"/>
-      <c r="Q8" s="216"/>
-      <c r="R8" s="216"/>
-      <c r="S8" s="216"/>
-      <c r="T8" s="221"/>
-      <c r="U8" s="221"/>
-      <c r="V8" s="221"/>
-      <c r="W8" s="216"/>
-      <c r="X8" s="216"/>
-      <c r="Y8" s="216"/>
-      <c r="Z8" s="216"/>
-      <c r="AA8" s="216"/>
-      <c r="AB8" s="216"/>
-      <c r="AC8" s="216"/>
-      <c r="AD8" s="216"/>
-      <c r="AE8" s="216"/>
-      <c r="AF8" s="216"/>
-      <c r="AG8" s="216"/>
-      <c r="AH8" s="216"/>
-      <c r="AI8" s="216"/>
-      <c r="AJ8" s="217"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="181"/>
+      <c r="AJ8" s="182"/>
       <c r="AK8" s="79"/>
       <c r="AL8" s="79"/>
       <c r="AM8" s="79"/>
     </row>
     <row r="9" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
-      <c r="B9" s="218"/>
-      <c r="C9" s="219" t="s">
+      <c r="B9" s="183"/>
+      <c r="C9" s="184" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="220"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="216"/>
-      <c r="M9" s="216"/>
-      <c r="N9" s="216"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="216"/>
-      <c r="Q9" s="216"/>
-      <c r="R9" s="216"/>
-      <c r="S9" s="216"/>
-      <c r="T9" s="216"/>
-      <c r="U9" s="216"/>
-      <c r="V9" s="216"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="221"/>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="221"/>
-      <c r="AE9" s="221"/>
-      <c r="AF9" s="221"/>
-      <c r="AG9" s="221"/>
-      <c r="AH9" s="221"/>
-      <c r="AI9" s="221"/>
-      <c r="AJ9" s="222"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="181"/>
+      <c r="V9" s="181"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="186"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="186"/>
+      <c r="AH9" s="186"/>
+      <c r="AI9" s="186"/>
+      <c r="AJ9" s="187"/>
       <c r="AK9" s="79"/>
       <c r="AL9" s="79"/>
       <c r="AM9" s="79"/>
     </row>
     <row r="10" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="195" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="223"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="225"/>
-      <c r="J10" s="225"/>
-      <c r="K10" s="225"/>
-      <c r="L10" s="225"/>
-      <c r="M10" s="225"/>
-      <c r="N10" s="225"/>
-      <c r="O10" s="225"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="225"/>
-      <c r="R10" s="225"/>
-      <c r="S10" s="225"/>
-      <c r="T10" s="225"/>
-      <c r="U10" s="225"/>
-      <c r="V10" s="225"/>
-      <c r="W10" s="225"/>
-      <c r="X10" s="225"/>
-      <c r="Y10" s="225"/>
-      <c r="Z10" s="225"/>
-      <c r="AA10" s="225"/>
-      <c r="AB10" s="225"/>
-      <c r="AC10" s="225"/>
-      <c r="AD10" s="225"/>
-      <c r="AE10" s="225"/>
-      <c r="AF10" s="225"/>
-      <c r="AG10" s="225"/>
-      <c r="AH10" s="225"/>
-      <c r="AI10" s="225"/>
-      <c r="AJ10" s="226"/>
+      <c r="C10" s="166" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="188"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="190"/>
+      <c r="AJ10" s="191"/>
       <c r="AK10" s="79"/>
       <c r="AL10" s="79"/>
       <c r="AM10" s="79"/>
     </row>
     <row r="11" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="195" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" s="227"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="225"/>
-      <c r="J11" s="225"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="225"/>
-      <c r="S11" s="225"/>
-      <c r="T11" s="225"/>
-      <c r="U11" s="225"/>
-      <c r="V11" s="225"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="225"/>
-      <c r="Y11" s="225"/>
-      <c r="Z11" s="225"/>
-      <c r="AA11" s="225"/>
-      <c r="AB11" s="225"/>
-      <c r="AC11" s="225"/>
-      <c r="AD11" s="225"/>
-      <c r="AE11" s="225"/>
-      <c r="AF11" s="225"/>
-      <c r="AG11" s="225"/>
-      <c r="AH11" s="225"/>
-      <c r="AI11" s="225"/>
-      <c r="AJ11" s="226"/>
+      <c r="C11" s="166" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="192"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="190"/>
+      <c r="AJ11" s="191"/>
       <c r="AK11" s="79"/>
       <c r="AL11" s="79"/>
       <c r="AM11" s="79"/>
     </row>
     <row r="12" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="196" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="227"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="224"/>
-      <c r="K12" s="225"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="225"/>
-      <c r="O12" s="225"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="225"/>
-      <c r="S12" s="225"/>
-      <c r="T12" s="225"/>
-      <c r="U12" s="225"/>
-      <c r="V12" s="225"/>
-      <c r="W12" s="225"/>
-      <c r="X12" s="225"/>
-      <c r="Y12" s="225"/>
-      <c r="Z12" s="225"/>
-      <c r="AA12" s="225"/>
-      <c r="AB12" s="225"/>
-      <c r="AC12" s="225"/>
-      <c r="AD12" s="225"/>
-      <c r="AE12" s="225"/>
-      <c r="AF12" s="225"/>
-      <c r="AG12" s="225"/>
-      <c r="AH12" s="225"/>
-      <c r="AI12" s="225"/>
-      <c r="AJ12" s="226"/>
+      <c r="C12" s="167" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="192"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="190"/>
+      <c r="AJ12" s="191"/>
       <c r="AK12" s="79"/>
       <c r="AL12" s="79"/>
       <c r="AM12" s="79"/>
     </row>
     <row r="13" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="197" t="s">
+      <c r="C13" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="227"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225"/>
-      <c r="I13" s="225"/>
-      <c r="J13" s="224"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="224"/>
-      <c r="N13" s="224"/>
-      <c r="O13" s="224"/>
-      <c r="P13" s="224"/>
-      <c r="Q13" s="224"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="224"/>
-      <c r="T13" s="224"/>
-      <c r="U13" s="224"/>
-      <c r="V13" s="224"/>
-      <c r="W13" s="224"/>
-      <c r="X13" s="224"/>
-      <c r="Y13" s="224"/>
-      <c r="Z13" s="224"/>
-      <c r="AA13" s="228"/>
-      <c r="AB13" s="228"/>
-      <c r="AC13" s="228"/>
-      <c r="AD13" s="228"/>
-      <c r="AE13" s="228"/>
-      <c r="AF13" s="228"/>
-      <c r="AG13" s="225"/>
-      <c r="AH13" s="225"/>
-      <c r="AI13" s="225"/>
-      <c r="AJ13" s="226"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="189"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="193"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="193"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="190"/>
+      <c r="AI13" s="190"/>
+      <c r="AJ13" s="191"/>
       <c r="AK13" s="79"/>
       <c r="AL13" s="79"/>
       <c r="AM13" s="79"/>
     </row>
     <row r="14" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="197" t="s">
+      <c r="C14" s="168" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="225" t="s">
+      <c r="D14" s="192"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="G14" s="225"/>
-      <c r="H14" s="225"/>
-      <c r="I14" s="225"/>
-      <c r="J14" s="225"/>
-      <c r="K14" s="225"/>
-      <c r="L14" s="225"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="224"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="224"/>
-      <c r="X14" s="224"/>
-      <c r="Y14" s="224"/>
-      <c r="Z14" s="224"/>
-      <c r="AA14" s="224"/>
-      <c r="AB14" s="224"/>
-      <c r="AC14" s="224"/>
-      <c r="AD14" s="224"/>
-      <c r="AE14" s="224"/>
-      <c r="AF14" s="224"/>
-      <c r="AG14" s="225"/>
-      <c r="AH14" s="225"/>
-      <c r="AI14" s="225"/>
-      <c r="AJ14" s="226"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="189"/>
+      <c r="V14" s="189"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="189"/>
+      <c r="AA14" s="189"/>
+      <c r="AB14" s="189"/>
+      <c r="AC14" s="189"/>
+      <c r="AD14" s="189"/>
+      <c r="AE14" s="189"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="190"/>
+      <c r="AH14" s="190"/>
+      <c r="AI14" s="190"/>
+      <c r="AJ14" s="191"/>
       <c r="AK14" s="79"/>
       <c r="AL14" s="79"/>
       <c r="AM14" s="79"/>
     </row>
     <row r="15" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="197" t="s">
+      <c r="C15" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="227"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="225"/>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
-      <c r="N15" s="225"/>
-      <c r="O15" s="225"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="225"/>
-      <c r="R15" s="225"/>
-      <c r="S15" s="225"/>
-      <c r="T15" s="225"/>
-      <c r="U15" s="225"/>
-      <c r="V15" s="225"/>
-      <c r="W15" s="225"/>
-      <c r="X15" s="225"/>
-      <c r="Y15" s="225"/>
-      <c r="Z15" s="225"/>
-      <c r="AA15" s="225"/>
-      <c r="AB15" s="225"/>
-      <c r="AC15" s="229"/>
-      <c r="AD15" s="229"/>
-      <c r="AE15" s="229"/>
-      <c r="AF15" s="229"/>
-      <c r="AG15" s="224"/>
-      <c r="AH15" s="224"/>
-      <c r="AI15" s="224"/>
-      <c r="AJ15" s="230"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="190"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="190"/>
+      <c r="W15" s="190"/>
+      <c r="X15" s="190"/>
+      <c r="Y15" s="190"/>
+      <c r="Z15" s="190"/>
+      <c r="AA15" s="190"/>
+      <c r="AB15" s="190"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="194"/>
+      <c r="AG15" s="189"/>
+      <c r="AH15" s="189"/>
+      <c r="AI15" s="189"/>
+      <c r="AJ15" s="195"/>
       <c r="AK15" s="79"/>
       <c r="AL15" s="79"/>
       <c r="AM15" s="79"/>
     </row>
     <row r="16" spans="1:39" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="79"/>
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="231"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="232"/>
-      <c r="U16" s="232"/>
-      <c r="V16" s="232"/>
-      <c r="W16" s="232"/>
-      <c r="X16" s="232"/>
-      <c r="Y16" s="232"/>
-      <c r="Z16" s="232"/>
-      <c r="AA16" s="232"/>
-      <c r="AB16" s="232"/>
-      <c r="AC16" s="232"/>
-      <c r="AD16" s="232"/>
-      <c r="AE16" s="232"/>
-      <c r="AF16" s="232"/>
-      <c r="AG16" s="232"/>
-      <c r="AH16" s="232"/>
-      <c r="AI16" s="232"/>
-      <c r="AJ16" s="233"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="197"/>
+      <c r="AJ16" s="198"/>
       <c r="AK16" s="79"/>
       <c r="AL16" s="79"/>
       <c r="AM16" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Z2:Z5"/>
     <mergeCell ref="AH2:AH5"/>
     <mergeCell ref="AI2:AI5"/>
     <mergeCell ref="AJ2:AJ5"/>
@@ -20423,30 +20532,6 @@
     <mergeCell ref="AE2:AE5"/>
     <mergeCell ref="AF2:AF5"/>
     <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
@@ -20463,339 +20548,339 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B2" sqref="B2:AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="38" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="38" customWidth="1"/>
     <col min="4" max="36" width="5.5703125" style="38" customWidth="1"/>
     <col min="37" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="200"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="202" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="202" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="222" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="222" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="222" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="202" t="s">
+      <c r="G2" s="222" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="202" t="s">
+      <c r="H2" s="222" t="s">
         <v>257</v>
       </c>
-      <c r="I2" s="202" t="s">
+      <c r="I2" s="222" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="202" t="s">
+      <c r="J2" s="225" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="202" t="s">
+      <c r="K2" s="225" t="s">
         <v>260</v>
       </c>
-      <c r="L2" s="202" t="s">
+      <c r="L2" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="M2" s="202" t="s">
+      <c r="M2" s="225" t="s">
         <v>262</v>
       </c>
-      <c r="N2" s="202" t="s">
+      <c r="N2" s="225" t="s">
         <v>263</v>
       </c>
-      <c r="O2" s="202" t="s">
+      <c r="O2" s="225" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="202" t="s">
+      <c r="P2" s="225" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" s="202" t="s">
+      <c r="Q2" s="225" t="s">
         <v>266</v>
       </c>
-      <c r="R2" s="202" t="s">
+      <c r="R2" s="225" t="s">
         <v>267</v>
       </c>
-      <c r="S2" s="202" t="s">
+      <c r="S2" s="225" t="s">
         <v>268</v>
       </c>
-      <c r="T2" s="202" t="s">
+      <c r="T2" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="U2" s="202" t="s">
+      <c r="U2" s="225" t="s">
         <v>270</v>
       </c>
-      <c r="V2" s="202" t="s">
+      <c r="V2" s="225" t="s">
         <v>274</v>
       </c>
-      <c r="W2" s="202" t="s">
+      <c r="W2" s="225" t="s">
         <v>275</v>
       </c>
-      <c r="X2" s="202" t="s">
+      <c r="X2" s="225" t="s">
         <v>276</v>
       </c>
-      <c r="Y2" s="202" t="s">
+      <c r="Y2" s="225" t="s">
         <v>277</v>
       </c>
-      <c r="Z2" s="202" t="s">
+      <c r="Z2" s="225" t="s">
         <v>278</v>
       </c>
-      <c r="AA2" s="202" t="s">
+      <c r="AA2" s="225" t="s">
         <v>279</v>
       </c>
-      <c r="AB2" s="202" t="s">
+      <c r="AB2" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="AC2" s="202" t="s">
+      <c r="AC2" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="AD2" s="202" t="s">
+      <c r="AD2" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="AE2" s="203" t="s">
+      <c r="AE2" s="228" t="s">
         <v>283</v>
       </c>
-      <c r="AF2" s="202" t="s">
+      <c r="AF2" s="225" t="s">
         <v>284</v>
       </c>
-      <c r="AG2" s="203" t="s">
+      <c r="AG2" s="228" t="s">
         <v>285</v>
       </c>
-      <c r="AH2" s="202" t="s">
+      <c r="AH2" s="225" t="s">
         <v>286</v>
       </c>
-      <c r="AI2" s="202" t="s">
+      <c r="AI2" s="225" t="s">
         <v>287</v>
       </c>
-      <c r="AJ2" s="202" t="s">
+      <c r="AJ2" s="225" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="200"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="205"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="204"/>
-      <c r="AJ3" s="204"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="226"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="226"/>
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
     </row>
     <row r="4" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="204"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="204"/>
-      <c r="V4" s="204"/>
-      <c r="W4" s="204"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="204"/>
-      <c r="AA4" s="204"/>
-      <c r="AB4" s="204"/>
-      <c r="AC4" s="204"/>
-      <c r="AD4" s="204"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="204"/>
-      <c r="AG4" s="205"/>
-      <c r="AH4" s="204"/>
-      <c r="AI4" s="204"/>
-      <c r="AJ4" s="204"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="226"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="226"/>
+      <c r="AB4" s="226"/>
+      <c r="AC4" s="226"/>
+      <c r="AD4" s="226"/>
+      <c r="AE4" s="229"/>
+      <c r="AF4" s="226"/>
+      <c r="AG4" s="229"/>
+      <c r="AH4" s="226"/>
+      <c r="AI4" s="226"/>
+      <c r="AJ4" s="226"/>
     </row>
     <row r="5" spans="1:39" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="200"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="206"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="207"/>
-      <c r="AF5" s="206"/>
-      <c r="AG5" s="207"/>
-      <c r="AH5" s="206"/>
-      <c r="AI5" s="206"/>
-      <c r="AJ5" s="206"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="227"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="227"/>
+      <c r="Q5" s="227"/>
+      <c r="R5" s="227"/>
+      <c r="S5" s="227"/>
+      <c r="T5" s="227"/>
+      <c r="U5" s="227"/>
+      <c r="V5" s="227"/>
+      <c r="W5" s="227"/>
+      <c r="X5" s="227"/>
+      <c r="Y5" s="227"/>
+      <c r="Z5" s="227"/>
+      <c r="AA5" s="227"/>
+      <c r="AB5" s="227"/>
+      <c r="AC5" s="227"/>
+      <c r="AD5" s="227"/>
+      <c r="AE5" s="230"/>
+      <c r="AF5" s="227"/>
+      <c r="AG5" s="230"/>
+      <c r="AH5" s="227"/>
+      <c r="AI5" s="227"/>
+      <c r="AJ5" s="227"/>
     </row>
     <row r="6" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="79"/>
-      <c r="B6" s="208"/>
-      <c r="C6" s="209" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="174" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="210">
+      <c r="D6" s="175">
         <v>1</v>
       </c>
-      <c r="E6" s="210">
+      <c r="E6" s="175">
         <v>2</v>
       </c>
-      <c r="F6" s="210">
+      <c r="F6" s="175">
         <v>3</v>
       </c>
-      <c r="G6" s="210">
+      <c r="G6" s="175">
         <v>4</v>
       </c>
-      <c r="H6" s="210">
+      <c r="H6" s="175">
         <v>5</v>
       </c>
-      <c r="I6" s="210">
+      <c r="I6" s="175">
         <v>6</v>
       </c>
-      <c r="J6" s="210">
+      <c r="J6" s="175">
         <v>7</v>
       </c>
-      <c r="K6" s="210">
+      <c r="K6" s="175">
         <v>8</v>
       </c>
-      <c r="L6" s="210">
+      <c r="L6" s="175">
         <v>9</v>
       </c>
-      <c r="M6" s="210">
+      <c r="M6" s="175">
         <v>10</v>
       </c>
-      <c r="N6" s="210">
+      <c r="N6" s="175">
         <v>11</v>
       </c>
-      <c r="O6" s="210">
+      <c r="O6" s="175">
         <v>12</v>
       </c>
-      <c r="P6" s="210">
+      <c r="P6" s="175">
         <v>13</v>
       </c>
-      <c r="Q6" s="210">
+      <c r="Q6" s="175">
         <v>14</v>
       </c>
-      <c r="R6" s="211">
+      <c r="R6" s="176">
         <v>15</v>
       </c>
-      <c r="S6" s="210">
+      <c r="S6" s="175">
         <v>16</v>
       </c>
-      <c r="T6" s="210">
+      <c r="T6" s="175">
         <v>17</v>
       </c>
-      <c r="U6" s="210">
+      <c r="U6" s="175">
         <v>18</v>
       </c>
-      <c r="V6" s="210">
+      <c r="V6" s="175">
         <v>19</v>
       </c>
-      <c r="W6" s="210">
+      <c r="W6" s="175">
         <v>20</v>
       </c>
-      <c r="X6" s="210">
+      <c r="X6" s="175">
         <v>21</v>
       </c>
-      <c r="Y6" s="210">
+      <c r="Y6" s="175">
         <v>22</v>
       </c>
-      <c r="Z6" s="210">
+      <c r="Z6" s="175">
         <v>23</v>
       </c>
-      <c r="AA6" s="210">
+      <c r="AA6" s="175">
         <v>24</v>
       </c>
-      <c r="AB6" s="210">
+      <c r="AB6" s="175">
         <v>25</v>
       </c>
-      <c r="AC6" s="210">
+      <c r="AC6" s="175">
         <v>26</v>
       </c>
-      <c r="AD6" s="210">
+      <c r="AD6" s="175">
         <v>27</v>
       </c>
-      <c r="AE6" s="210">
+      <c r="AE6" s="175">
         <v>28</v>
       </c>
-      <c r="AF6" s="211">
+      <c r="AF6" s="176">
         <v>29</v>
       </c>
-      <c r="AG6" s="210">
+      <c r="AG6" s="175">
         <v>30</v>
       </c>
-      <c r="AH6" s="210">
+      <c r="AH6" s="175">
         <v>31</v>
       </c>
-      <c r="AI6" s="210">
+      <c r="AI6" s="175">
         <v>32</v>
       </c>
-      <c r="AJ6" s="210">
+      <c r="AJ6" s="175">
         <v>33</v>
       </c>
       <c r="AK6" s="79"/>
@@ -20804,452 +20889,611 @@
     </row>
     <row r="7" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
-      <c r="B7" s="212"/>
-      <c r="C7" s="213" t="s">
+      <c r="B7" s="177"/>
+      <c r="C7" s="178" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="214"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="216"/>
-      <c r="Z7" s="216"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="216"/>
-      <c r="AF7" s="216"/>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="216"/>
-      <c r="AJ7" s="217"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="181"/>
+      <c r="AF7" s="181"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="181"/>
+      <c r="AJ7" s="182"/>
       <c r="AK7" s="79"/>
       <c r="AL7" s="79"/>
       <c r="AM7" s="79"/>
     </row>
     <row r="8" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
-      <c r="B8" s="218"/>
-      <c r="C8" s="219" t="s">
+      <c r="B8" s="183"/>
+      <c r="C8" s="184" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="220"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="216"/>
-      <c r="N8" s="216"/>
-      <c r="O8" s="216"/>
-      <c r="P8" s="216"/>
-      <c r="Q8" s="216"/>
-      <c r="R8" s="216"/>
-      <c r="S8" s="216"/>
-      <c r="T8" s="221"/>
-      <c r="U8" s="221"/>
-      <c r="V8" s="221"/>
-      <c r="W8" s="216"/>
-      <c r="X8" s="216"/>
-      <c r="Y8" s="216"/>
-      <c r="Z8" s="216"/>
-      <c r="AA8" s="216"/>
-      <c r="AB8" s="216"/>
-      <c r="AC8" s="216"/>
-      <c r="AD8" s="216"/>
-      <c r="AE8" s="216"/>
-      <c r="AF8" s="216"/>
-      <c r="AG8" s="216"/>
-      <c r="AH8" s="216"/>
-      <c r="AI8" s="216"/>
-      <c r="AJ8" s="217"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="181"/>
+      <c r="AJ8" s="182"/>
       <c r="AK8" s="79"/>
       <c r="AL8" s="79"/>
       <c r="AM8" s="79"/>
     </row>
     <row r="9" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
-      <c r="B9" s="218"/>
-      <c r="C9" s="219" t="s">
+      <c r="B9" s="183"/>
+      <c r="C9" s="184" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="220"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="216"/>
-      <c r="M9" s="216"/>
-      <c r="N9" s="216"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="216"/>
-      <c r="Q9" s="216"/>
-      <c r="R9" s="216"/>
-      <c r="S9" s="216"/>
-      <c r="T9" s="216"/>
-      <c r="U9" s="216"/>
-      <c r="V9" s="216"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="221"/>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="221"/>
-      <c r="AE9" s="221"/>
-      <c r="AF9" s="221"/>
-      <c r="AG9" s="221"/>
-      <c r="AH9" s="221"/>
-      <c r="AI9" s="221"/>
-      <c r="AJ9" s="222"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="181"/>
+      <c r="V9" s="181"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="186"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="186"/>
+      <c r="AH9" s="186"/>
+      <c r="AI9" s="186"/>
+      <c r="AJ9" s="187"/>
       <c r="AK9" s="79"/>
       <c r="AL9" s="79"/>
       <c r="AM9" s="79"/>
     </row>
     <row r="10" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="195" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="234"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="225"/>
-      <c r="J10" s="225"/>
-      <c r="K10" s="225"/>
-      <c r="L10" s="225"/>
-      <c r="M10" s="225"/>
-      <c r="N10" s="225"/>
-      <c r="O10" s="225"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="225"/>
-      <c r="R10" s="225"/>
-      <c r="S10" s="225"/>
-      <c r="T10" s="225"/>
-      <c r="U10" s="225"/>
-      <c r="V10" s="225"/>
-      <c r="W10" s="225"/>
-      <c r="X10" s="225"/>
-      <c r="Y10" s="225"/>
-      <c r="Z10" s="225"/>
-      <c r="AA10" s="225"/>
-      <c r="AB10" s="225"/>
-      <c r="AC10" s="225"/>
-      <c r="AD10" s="225"/>
-      <c r="AE10" s="225"/>
-      <c r="AF10" s="225"/>
-      <c r="AG10" s="225"/>
-      <c r="AH10" s="225"/>
-      <c r="AI10" s="225"/>
-      <c r="AJ10" s="226"/>
+      <c r="C10" s="166" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="199"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="190"/>
+      <c r="AJ10" s="191"/>
       <c r="AK10" s="79"/>
       <c r="AL10" s="79"/>
       <c r="AM10" s="79"/>
     </row>
     <row r="11" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="D11" s="227"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="225"/>
-      <c r="J11" s="225"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="225"/>
-      <c r="S11" s="225"/>
-      <c r="T11" s="225"/>
-      <c r="U11" s="225"/>
-      <c r="V11" s="225"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="225"/>
-      <c r="Y11" s="225"/>
-      <c r="Z11" s="225"/>
-      <c r="AA11" s="225"/>
-      <c r="AB11" s="225"/>
-      <c r="AC11" s="225"/>
-      <c r="AD11" s="225"/>
-      <c r="AE11" s="225"/>
-      <c r="AF11" s="225"/>
-      <c r="AG11" s="225"/>
-      <c r="AH11" s="225"/>
-      <c r="AI11" s="225"/>
-      <c r="AJ11" s="226"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="236"/>
+      <c r="N11" s="236"/>
+      <c r="O11" s="236"/>
+      <c r="P11" s="236"/>
+      <c r="Q11" s="236"/>
+      <c r="R11" s="236"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="190"/>
+      <c r="AJ11" s="191"/>
       <c r="AK11" s="79"/>
       <c r="AL11" s="79"/>
       <c r="AM11" s="79"/>
     </row>
     <row r="12" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="196" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="227"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="228"/>
-      <c r="K12" s="225"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="225"/>
-      <c r="O12" s="225"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="225"/>
-      <c r="S12" s="225"/>
-      <c r="T12" s="225"/>
-      <c r="U12" s="225"/>
-      <c r="V12" s="225"/>
-      <c r="W12" s="225"/>
-      <c r="X12" s="225"/>
-      <c r="Y12" s="225"/>
-      <c r="Z12" s="225"/>
-      <c r="AA12" s="225"/>
-      <c r="AB12" s="225"/>
-      <c r="AC12" s="225"/>
-      <c r="AD12" s="225"/>
-      <c r="AE12" s="225"/>
-      <c r="AF12" s="225"/>
-      <c r="AG12" s="225"/>
-      <c r="AH12" s="225"/>
-      <c r="AI12" s="225"/>
-      <c r="AJ12" s="226"/>
+      <c r="C12" s="167" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="192"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="190"/>
+      <c r="AJ12" s="191"/>
       <c r="AK12" s="79"/>
       <c r="AL12" s="79"/>
       <c r="AM12" s="79"/>
     </row>
     <row r="13" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="197" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="227"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225"/>
-      <c r="I13" s="225"/>
-      <c r="J13" s="228"/>
-      <c r="K13" s="228"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="228"/>
-      <c r="N13" s="228"/>
-      <c r="O13" s="228"/>
-      <c r="P13" s="228"/>
-      <c r="Q13" s="228"/>
-      <c r="R13" s="228"/>
-      <c r="S13" s="228"/>
-      <c r="T13" s="228"/>
-      <c r="U13" s="228"/>
-      <c r="V13" s="228"/>
-      <c r="W13" s="228"/>
-      <c r="X13" s="228"/>
-      <c r="Y13" s="228"/>
-      <c r="Z13" s="228"/>
-      <c r="AA13" s="228"/>
-      <c r="AB13" s="228"/>
-      <c r="AC13" s="228"/>
-      <c r="AD13" s="228"/>
-      <c r="AE13" s="228"/>
-      <c r="AF13" s="228"/>
-      <c r="AG13" s="225"/>
-      <c r="AH13" s="225"/>
-      <c r="AI13" s="225"/>
-      <c r="AJ13" s="226"/>
+      <c r="C13" s="167" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="192"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="189"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="189"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="189"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="190"/>
+      <c r="AI13" s="190"/>
+      <c r="AJ13" s="191"/>
       <c r="AK13" s="79"/>
       <c r="AL13" s="79"/>
       <c r="AM13" s="79"/>
     </row>
     <row r="14" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="197" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="225" t="s">
+      <c r="C14" s="167" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="192"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="G14" s="225"/>
-      <c r="H14" s="225"/>
-      <c r="I14" s="225"/>
-      <c r="J14" s="225"/>
-      <c r="K14" s="225"/>
-      <c r="L14" s="225"/>
-      <c r="M14" s="228"/>
-      <c r="N14" s="228"/>
-      <c r="O14" s="228"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="228"/>
-      <c r="R14" s="228"/>
-      <c r="S14" s="228"/>
-      <c r="T14" s="228"/>
-      <c r="U14" s="228"/>
-      <c r="V14" s="228"/>
-      <c r="W14" s="228"/>
-      <c r="X14" s="228"/>
-      <c r="Y14" s="228"/>
-      <c r="Z14" s="228"/>
-      <c r="AA14" s="228"/>
-      <c r="AB14" s="228"/>
-      <c r="AC14" s="228"/>
-      <c r="AD14" s="228"/>
-      <c r="AE14" s="228"/>
-      <c r="AF14" s="228"/>
-      <c r="AG14" s="225"/>
-      <c r="AH14" s="225"/>
-      <c r="AI14" s="225"/>
-      <c r="AJ14" s="226"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="193"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="190"/>
+      <c r="AH14" s="190"/>
+      <c r="AI14" s="190"/>
+      <c r="AJ14" s="191"/>
       <c r="AK14" s="79"/>
       <c r="AL14" s="79"/>
       <c r="AM14" s="79"/>
     </row>
     <row r="15" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="197" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="227"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="225"/>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
-      <c r="N15" s="225"/>
-      <c r="O15" s="225"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="225"/>
-      <c r="R15" s="225"/>
-      <c r="S15" s="225"/>
-      <c r="T15" s="225"/>
-      <c r="U15" s="225"/>
-      <c r="V15" s="225"/>
-      <c r="W15" s="225"/>
-      <c r="X15" s="225"/>
-      <c r="Y15" s="225"/>
-      <c r="Z15" s="225"/>
-      <c r="AA15" s="225"/>
-      <c r="AB15" s="225"/>
-      <c r="AC15" s="225"/>
-      <c r="AD15" s="225"/>
-      <c r="AE15" s="225"/>
-      <c r="AF15" s="225"/>
-      <c r="AG15" s="228"/>
-      <c r="AH15" s="228"/>
-      <c r="AI15" s="228"/>
-      <c r="AJ15" s="235"/>
+      <c r="C15" s="167" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="192"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="190"/>
+      <c r="Z15" s="190"/>
+      <c r="AA15" s="190"/>
+      <c r="AB15" s="190"/>
+      <c r="AC15" s="190"/>
+      <c r="AD15" s="190"/>
+      <c r="AE15" s="190"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="193"/>
+      <c r="AH15" s="193"/>
+      <c r="AI15" s="193"/>
+      <c r="AJ15" s="200"/>
       <c r="AK15" s="79"/>
       <c r="AL15" s="79"/>
       <c r="AM15" s="79"/>
     </row>
-    <row r="16" spans="1:39" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="79"/>
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="199" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="231"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="232"/>
-      <c r="U16" s="232"/>
-      <c r="V16" s="232"/>
-      <c r="W16" s="232"/>
-      <c r="X16" s="232"/>
-      <c r="Y16" s="232"/>
-      <c r="Z16" s="232"/>
-      <c r="AA16" s="232"/>
-      <c r="AB16" s="232"/>
-      <c r="AC16" s="232"/>
-      <c r="AD16" s="232"/>
-      <c r="AE16" s="232"/>
-      <c r="AF16" s="232"/>
-      <c r="AG16" s="232"/>
-      <c r="AH16" s="232"/>
-      <c r="AI16" s="232"/>
-      <c r="AJ16" s="236"/>
+      <c r="C16" s="238" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" s="239"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="240"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="240"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="240"/>
+      <c r="M16" s="240"/>
+      <c r="N16" s="240"/>
+      <c r="O16" s="240"/>
+      <c r="P16" s="240"/>
+      <c r="Q16" s="240"/>
+      <c r="R16" s="240"/>
+      <c r="S16" s="243"/>
+      <c r="T16" s="243"/>
+      <c r="U16" s="243"/>
+      <c r="V16" s="243"/>
+      <c r="W16" s="243"/>
+      <c r="X16" s="243"/>
+      <c r="Y16" s="243"/>
+      <c r="Z16" s="243"/>
+      <c r="AA16" s="240"/>
+      <c r="AB16" s="240"/>
+      <c r="AC16" s="240"/>
+      <c r="AD16" s="240"/>
+      <c r="AE16" s="240"/>
+      <c r="AF16" s="240"/>
+      <c r="AG16" s="241"/>
+      <c r="AH16" s="241"/>
+      <c r="AI16" s="241"/>
+      <c r="AJ16" s="242"/>
       <c r="AK16" s="79"/>
       <c r="AL16" s="79"/>
       <c r="AM16" s="79"/>
     </row>
+    <row r="17" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="79"/>
+      <c r="B17" s="237" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="238" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="239"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="240"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="240"/>
+      <c r="M17" s="240"/>
+      <c r="N17" s="240"/>
+      <c r="O17" s="240"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="240"/>
+      <c r="R17" s="240"/>
+      <c r="S17" s="240"/>
+      <c r="T17" s="240"/>
+      <c r="U17" s="240"/>
+      <c r="V17" s="240"/>
+      <c r="W17" s="240"/>
+      <c r="X17" s="240"/>
+      <c r="Y17" s="240"/>
+      <c r="Z17" s="240"/>
+      <c r="AA17" s="243"/>
+      <c r="AB17" s="243"/>
+      <c r="AC17" s="243"/>
+      <c r="AD17" s="243"/>
+      <c r="AE17" s="243"/>
+      <c r="AF17" s="243"/>
+      <c r="AG17" s="247"/>
+      <c r="AH17" s="247"/>
+      <c r="AI17" s="241"/>
+      <c r="AJ17" s="242"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
+      <c r="AM17" s="79"/>
+    </row>
+    <row r="18" spans="1:39" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="79"/>
+      <c r="B18" s="237" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="238" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="239"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="240"/>
+      <c r="J18" s="240"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="240"/>
+      <c r="M18" s="240"/>
+      <c r="N18" s="240"/>
+      <c r="O18" s="240"/>
+      <c r="P18" s="240"/>
+      <c r="Q18" s="240"/>
+      <c r="R18" s="240"/>
+      <c r="S18" s="240"/>
+      <c r="T18" s="240"/>
+      <c r="U18" s="240"/>
+      <c r="V18" s="240"/>
+      <c r="W18" s="240"/>
+      <c r="X18" s="240"/>
+      <c r="Y18" s="240"/>
+      <c r="Z18" s="240"/>
+      <c r="AA18" s="240"/>
+      <c r="AB18" s="240"/>
+      <c r="AC18" s="240"/>
+      <c r="AD18" s="240"/>
+      <c r="AE18" s="243"/>
+      <c r="AF18" s="243"/>
+      <c r="AG18" s="245"/>
+      <c r="AH18" s="245"/>
+      <c r="AI18" s="245"/>
+      <c r="AJ18" s="246"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="79"/>
+      <c r="AM18" s="79"/>
+    </row>
+    <row r="19" spans="1:39" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="79"/>
+      <c r="B19" s="169" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="197"/>
+      <c r="R19" s="197"/>
+      <c r="S19" s="197"/>
+      <c r="T19" s="197"/>
+      <c r="U19" s="197"/>
+      <c r="V19" s="197"/>
+      <c r="W19" s="197"/>
+      <c r="X19" s="197"/>
+      <c r="Y19" s="197"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="197"/>
+      <c r="AB19" s="197"/>
+      <c r="AC19" s="197"/>
+      <c r="AD19" s="197"/>
+      <c r="AE19" s="197"/>
+      <c r="AF19" s="197"/>
+      <c r="AG19" s="197"/>
+      <c r="AH19" s="197"/>
+      <c r="AI19" s="197"/>
+      <c r="AJ19" s="244"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="79"/>
+    </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Z2:Z5"/>
     <mergeCell ref="AH2:AH5"/>
     <mergeCell ref="AI2:AI5"/>
     <mergeCell ref="AJ2:AJ5"/>
@@ -21259,30 +21503,6 @@
     <mergeCell ref="AE2:AE5"/>
     <mergeCell ref="AF2:AF5"/>
     <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
@@ -21311,24 +21531,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="192" t="s">
+      <c r="D1" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="193"/>
+      <c r="E1" s="235"/>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="172"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="14" t="s">
         <v>44</v>
       </c>
@@ -21337,9 +21557,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="20.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="173"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="16" t="s">
         <v>44</v>
       </c>
